--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/0/Output_5_18.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/0/Output_5_18.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>435048.7820973089</v>
+        <v>477683.5507165081</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>26510653.87194557</v>
+        <v>26352936.33612716</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4321490.519544261</v>
+        <v>4382717.685096691</v>
       </c>
     </row>
     <row r="11">
@@ -22559,49 +22561,49 @@
         <v>396.4306022709785</v>
       </c>
       <c r="G2" t="n">
-        <v>425.3631419705275</v>
+        <v>425.3279641103588</v>
       </c>
       <c r="H2" t="n">
-        <v>361.083527812557</v>
+        <v>360.7232625521045</v>
       </c>
       <c r="I2" t="n">
-        <v>297.8580543676313</v>
+        <v>296.5018599134784</v>
       </c>
       <c r="J2" t="n">
-        <v>197.5370229566986</v>
+        <v>194.5513460472073</v>
       </c>
       <c r="K2" t="n">
-        <v>212.7738698580642</v>
+        <v>208.2991141276327</v>
       </c>
       <c r="L2" t="n">
-        <v>203.3937265548011</v>
+        <v>197.8423963862325</v>
       </c>
       <c r="M2" t="n">
-        <v>174.3320480963427</v>
+        <v>168.1551236569994</v>
       </c>
       <c r="N2" t="n">
-        <v>169.5797525742951</v>
+        <v>163.3028790397475</v>
       </c>
       <c r="O2" t="n">
-        <v>182.018038031285</v>
+        <v>176.0909643437898</v>
       </c>
       <c r="P2" t="n">
-        <v>211.9786150263909</v>
+        <v>206.9199947618099</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.2585393133201</v>
+        <v>234.4597261660298</v>
       </c>
       <c r="R2" t="n">
-        <v>278.7851769012656</v>
+        <v>276.5754356424449</v>
       </c>
       <c r="S2" t="n">
-        <v>261.9453705225658</v>
+        <v>261.1437550339721</v>
       </c>
       <c r="T2" t="n">
-        <v>221.3786313295378</v>
+        <v>221.2246402466494</v>
       </c>
       <c r="U2" t="n">
-        <v>247.9517743239616</v>
+        <v>247.9489600951481</v>
       </c>
       <c r="V2" t="n">
         <v>308.2281821605244</v>
@@ -22638,49 +22640,49 @@
         <v>184.1437201392488</v>
       </c>
       <c r="G3" t="n">
-        <v>169.7418267907412</v>
+        <v>169.723004976218</v>
       </c>
       <c r="H3" t="n">
-        <v>150.6734855721516</v>
+        <v>150.4917064687295</v>
       </c>
       <c r="I3" t="n">
-        <v>140.7435606385208</v>
+        <v>140.0955288665573</v>
       </c>
       <c r="J3" t="n">
-        <v>148.539577715101</v>
+        <v>146.7613290017425</v>
       </c>
       <c r="K3" t="n">
-        <v>125.593362827718</v>
+        <v>122.5540525413004</v>
       </c>
       <c r="L3" t="n">
-        <v>92.84130138719635</v>
+        <v>88.75457363292247</v>
       </c>
       <c r="M3" t="n">
-        <v>76.56878252612637</v>
+        <v>71.79976399538398</v>
       </c>
       <c r="N3" t="n">
-        <v>54.94477683874706</v>
+        <v>50.04953657815341</v>
       </c>
       <c r="O3" t="n">
-        <v>86.7356225324562</v>
+        <v>82.25743405682553</v>
       </c>
       <c r="P3" t="n">
-        <v>101.3465521584672</v>
+        <v>97.75241110270365</v>
       </c>
       <c r="Q3" t="n">
-        <v>149.6855611195313</v>
+        <v>147.2829730059996</v>
       </c>
       <c r="R3" t="n">
-        <v>198.8951526763332</v>
+        <v>197.7265491395288</v>
       </c>
       <c r="S3" t="n">
-        <v>228.4034259556971</v>
+        <v>228.0538190061092</v>
       </c>
       <c r="T3" t="n">
-        <v>242.2634824980462</v>
+        <v>242.1876173772266</v>
       </c>
       <c r="U3" t="n">
-        <v>258.0064176669804</v>
+        <v>258.0051793897092</v>
       </c>
       <c r="V3" t="n">
         <v>255.0969898936781</v>
@@ -22717,49 +22719,49 @@
         <v>126.9717133511</v>
       </c>
       <c r="G4" t="n">
-        <v>170.0148694856145</v>
+        <v>169.9990899085839</v>
       </c>
       <c r="H4" t="n">
-        <v>172.5125810721775</v>
+        <v>172.3722862873056</v>
       </c>
       <c r="I4" t="n">
-        <v>182.3854065011516</v>
+        <v>181.9108715846319</v>
       </c>
       <c r="J4" t="n">
-        <v>170.2490097190589</v>
+        <v>169.1333936229968</v>
       </c>
       <c r="K4" t="n">
-        <v>150.2926714998491</v>
+        <v>148.4593715502961</v>
       </c>
       <c r="L4" t="n">
-        <v>143.2350763053699</v>
+        <v>140.8890835530234</v>
       </c>
       <c r="M4" t="n">
-        <v>145.6731131081891</v>
+        <v>143.1995926832954</v>
       </c>
       <c r="N4" t="n">
-        <v>129.3118779353426</v>
+        <v>126.8971722975629</v>
       </c>
       <c r="O4" t="n">
-        <v>152.7826404124129</v>
+        <v>150.5522689244904</v>
       </c>
       <c r="P4" t="n">
-        <v>162.0205318729156</v>
+        <v>160.1120637564169</v>
       </c>
       <c r="Q4" t="n">
-        <v>203.4171828548767</v>
+        <v>202.095858454616</v>
       </c>
       <c r="R4" t="n">
-        <v>251.8788850013734</v>
+        <v>251.1693778377984</v>
       </c>
       <c r="S4" t="n">
-        <v>256.5932939716247</v>
+        <v>256.3182989791918</v>
       </c>
       <c r="T4" t="n">
-        <v>216.0908646807395</v>
+        <v>216.0234428516088</v>
       </c>
       <c r="U4" t="n">
-        <v>292.9601378240686</v>
+        <v>292.959277119867</v>
       </c>
       <c r="V4" t="n">
         <v>232.1699497460494</v>
@@ -23270,49 +23272,49 @@
         <v>396.4306022709785</v>
       </c>
       <c r="G11" t="n">
-        <v>424.412755955792</v>
+        <v>424.3712068224367</v>
       </c>
       <c r="H11" t="n">
-        <v>351.3503870391469</v>
+        <v>350.9248719771719</v>
       </c>
       <c r="I11" t="n">
-        <v>261.2182975345403</v>
+        <v>259.61647457086</v>
       </c>
       <c r="J11" t="n">
-        <v>116.87419793854</v>
+        <v>113.3477671814256</v>
       </c>
       <c r="K11" t="n">
-        <v>91.88120483615114</v>
+        <v>86.59599926410681</v>
       </c>
       <c r="L11" t="n">
-        <v>53.41568553442607</v>
+        <v>46.85892067245942</v>
       </c>
       <c r="M11" t="n">
-        <v>7.452579786414901</v>
+        <v>0.1569155241409135</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>21.88868639101628</v>
+        <v>14.88812484839832</v>
       </c>
       <c r="P11" t="n">
-        <v>75.31191812490522</v>
+        <v>69.33710081199627</v>
       </c>
       <c r="Q11" t="n">
-        <v>135.6275415645501</v>
+        <v>131.1407025899278</v>
       </c>
       <c r="R11" t="n">
-        <v>219.0854914031357</v>
+        <v>216.4755306550058</v>
       </c>
       <c r="S11" t="n">
-        <v>240.2884492117802</v>
+        <v>239.3416483354463</v>
       </c>
       <c r="T11" t="n">
-        <v>217.2183165500331</v>
+        <v>217.0364352187702</v>
       </c>
       <c r="U11" t="n">
-        <v>247.8757434427827</v>
+        <v>247.8724195121143</v>
       </c>
       <c r="V11" t="n">
         <v>308.2281821605244</v>
@@ -23349,19 +23351,19 @@
         <v>184.1437201392488</v>
       </c>
       <c r="G12" t="n">
-        <v>169.2333254433287</v>
+        <v>169.2110946971189</v>
       </c>
       <c r="H12" t="n">
-        <v>145.7624330852993</v>
+        <v>145.547730878483</v>
       </c>
       <c r="I12" t="n">
-        <v>123.2359484578712</v>
+        <v>122.4705477659964</v>
       </c>
       <c r="J12" t="n">
-        <v>100.4973517299579</v>
+        <v>98.39703372948976</v>
       </c>
       <c r="K12" t="n">
-        <v>43.48154656593752</v>
+        <v>39.89176856940827</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -23376,22 +23378,22 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>4.245097493356042</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>84.77581017613943</v>
+        <v>81.93807492310449</v>
       </c>
       <c r="R12" t="n">
-        <v>167.3234637554063</v>
+        <v>165.9432074249376</v>
       </c>
       <c r="S12" t="n">
-        <v>218.9582364544167</v>
+        <v>218.5453100938957</v>
       </c>
       <c r="T12" t="n">
-        <v>240.2138652249231</v>
+        <v>240.1242597171736</v>
       </c>
       <c r="U12" t="n">
-        <v>257.9729636309664</v>
+        <v>257.9715010818737</v>
       </c>
       <c r="V12" t="n">
         <v>255.0969898936781</v>
@@ -23428,49 +23430,49 @@
         <v>126.9717133511</v>
       </c>
       <c r="G13" t="n">
-        <v>169.5885590376112</v>
+        <v>169.569921526768</v>
       </c>
       <c r="H13" t="n">
-        <v>168.7222936344755</v>
+        <v>168.5565892198879</v>
       </c>
       <c r="I13" t="n">
-        <v>169.5650886648345</v>
+        <v>169.0046078842048</v>
       </c>
       <c r="J13" t="n">
-        <v>140.1088610452264</v>
+        <v>138.7911890286131</v>
       </c>
       <c r="K13" t="n">
-        <v>100.7631485409216</v>
+        <v>98.5978086447768</v>
       </c>
       <c r="L13" t="n">
-        <v>79.85433933586287</v>
+        <v>77.08344976923124</v>
       </c>
       <c r="M13" t="n">
-        <v>78.84701260891001</v>
+        <v>75.92549806828202</v>
       </c>
       <c r="N13" t="n">
-        <v>64.0747527422576</v>
+        <v>61.22270528749968</v>
       </c>
       <c r="O13" t="n">
-        <v>92.52559636191177</v>
+        <v>89.89126892018564</v>
       </c>
       <c r="P13" t="n">
-        <v>110.4602209616816</v>
+        <v>108.2060987411565</v>
       </c>
       <c r="Q13" t="n">
-        <v>167.7194961588923</v>
+        <v>166.1588587736505</v>
       </c>
       <c r="R13" t="n">
-        <v>232.7104170393347</v>
+        <v>231.8724067790583</v>
       </c>
       <c r="S13" t="n">
-        <v>249.1638655277856</v>
+        <v>248.8390645433638</v>
       </c>
       <c r="T13" t="n">
-        <v>214.2693564029072</v>
+        <v>214.1897234020318</v>
       </c>
       <c r="U13" t="n">
-        <v>292.9368845269048</v>
+        <v>292.9358679354043</v>
       </c>
       <c r="V13" t="n">
         <v>232.1699497460494</v>
@@ -23507,49 +23509,49 @@
         <v>396.4306022709785</v>
       </c>
       <c r="G14" t="n">
-        <v>424.412755955792</v>
+        <v>424.3712068224367</v>
       </c>
       <c r="H14" t="n">
-        <v>351.3503870391469</v>
+        <v>350.9248719771719</v>
       </c>
       <c r="I14" t="n">
-        <v>261.2182975345403</v>
+        <v>259.61647457086</v>
       </c>
       <c r="J14" t="n">
-        <v>116.87419793854</v>
+        <v>113.3477671814256</v>
       </c>
       <c r="K14" t="n">
-        <v>91.88120483615114</v>
+        <v>86.59599926410681</v>
       </c>
       <c r="L14" t="n">
-        <v>53.41568553442607</v>
+        <v>46.85892067245942</v>
       </c>
       <c r="M14" t="n">
-        <v>7.452579786414901</v>
+        <v>0.1569155241409135</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>21.88868639101628</v>
+        <v>14.88812484839832</v>
       </c>
       <c r="P14" t="n">
-        <v>75.31191812490522</v>
+        <v>69.33710081199627</v>
       </c>
       <c r="Q14" t="n">
-        <v>135.6275415645501</v>
+        <v>131.1407025899278</v>
       </c>
       <c r="R14" t="n">
-        <v>219.0854914031357</v>
+        <v>216.4755306550058</v>
       </c>
       <c r="S14" t="n">
-        <v>240.2884492117802</v>
+        <v>239.3416483354463</v>
       </c>
       <c r="T14" t="n">
-        <v>217.2183165500331</v>
+        <v>217.0364352187702</v>
       </c>
       <c r="U14" t="n">
-        <v>247.8757434427827</v>
+        <v>247.8724195121143</v>
       </c>
       <c r="V14" t="n">
         <v>308.2281821605244</v>
@@ -23586,19 +23588,19 @@
         <v>184.1437201392488</v>
       </c>
       <c r="G15" t="n">
-        <v>169.2333254433287</v>
+        <v>169.2110946971189</v>
       </c>
       <c r="H15" t="n">
-        <v>145.7624330852993</v>
+        <v>145.547730878483</v>
       </c>
       <c r="I15" t="n">
-        <v>123.2359484578712</v>
+        <v>122.4705477659964</v>
       </c>
       <c r="J15" t="n">
-        <v>100.4973517299579</v>
+        <v>98.39703372948976</v>
       </c>
       <c r="K15" t="n">
-        <v>43.48154656593752</v>
+        <v>39.89176856940827</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -23613,22 +23615,22 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>4.245097493356042</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>84.77581017613943</v>
+        <v>81.93807492310449</v>
       </c>
       <c r="R15" t="n">
-        <v>167.3234637554063</v>
+        <v>165.9432074249376</v>
       </c>
       <c r="S15" t="n">
-        <v>218.9582364544167</v>
+        <v>218.5453100938957</v>
       </c>
       <c r="T15" t="n">
-        <v>240.2138652249231</v>
+        <v>240.1242597171736</v>
       </c>
       <c r="U15" t="n">
-        <v>257.9729636309664</v>
+        <v>257.9715010818737</v>
       </c>
       <c r="V15" t="n">
         <v>255.0969898936781</v>
@@ -23665,49 +23667,49 @@
         <v>126.9717133511</v>
       </c>
       <c r="G16" t="n">
-        <v>169.5885590376112</v>
+        <v>169.569921526768</v>
       </c>
       <c r="H16" t="n">
-        <v>168.7222936344755</v>
+        <v>168.5565892198879</v>
       </c>
       <c r="I16" t="n">
-        <v>169.5650886648345</v>
+        <v>169.0046078842048</v>
       </c>
       <c r="J16" t="n">
-        <v>140.1088610452264</v>
+        <v>138.7911890286131</v>
       </c>
       <c r="K16" t="n">
-        <v>100.7631485409216</v>
+        <v>98.5978086447768</v>
       </c>
       <c r="L16" t="n">
-        <v>79.85433933586287</v>
+        <v>77.08344976923124</v>
       </c>
       <c r="M16" t="n">
-        <v>78.84701260891001</v>
+        <v>75.92549806828202</v>
       </c>
       <c r="N16" t="n">
-        <v>64.0747527422576</v>
+        <v>61.22270528749968</v>
       </c>
       <c r="O16" t="n">
-        <v>92.52559636191177</v>
+        <v>89.89126892018564</v>
       </c>
       <c r="P16" t="n">
-        <v>110.4602209616816</v>
+        <v>108.2060987411565</v>
       </c>
       <c r="Q16" t="n">
-        <v>167.7194961588923</v>
+        <v>166.1588587736505</v>
       </c>
       <c r="R16" t="n">
-        <v>232.7104170393347</v>
+        <v>231.8724067790583</v>
       </c>
       <c r="S16" t="n">
-        <v>249.1638655277856</v>
+        <v>248.8390645433638</v>
       </c>
       <c r="T16" t="n">
-        <v>214.2693564029072</v>
+        <v>214.1897234020318</v>
       </c>
       <c r="U16" t="n">
-        <v>292.9368845269048</v>
+        <v>292.9358679354043</v>
       </c>
       <c r="V16" t="n">
         <v>232.1699497460494</v>
@@ -23744,49 +23746,49 @@
         <v>396.4306022709785</v>
       </c>
       <c r="G17" t="n">
-        <v>424.412755955792</v>
+        <v>424.3712068224367</v>
       </c>
       <c r="H17" t="n">
-        <v>351.3503870391469</v>
+        <v>350.9248719771719</v>
       </c>
       <c r="I17" t="n">
-        <v>261.2182975345403</v>
+        <v>259.61647457086</v>
       </c>
       <c r="J17" t="n">
-        <v>116.87419793854</v>
+        <v>113.3477671814256</v>
       </c>
       <c r="K17" t="n">
-        <v>91.88120483615114</v>
+        <v>86.59599926410681</v>
       </c>
       <c r="L17" t="n">
-        <v>53.41568553442607</v>
+        <v>46.85892067245942</v>
       </c>
       <c r="M17" t="n">
-        <v>7.452579786414901</v>
+        <v>0.1569155241409135</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>21.88868639101628</v>
+        <v>14.88812484839832</v>
       </c>
       <c r="P17" t="n">
-        <v>75.31191812490522</v>
+        <v>69.33710081199627</v>
       </c>
       <c r="Q17" t="n">
-        <v>135.6275415645501</v>
+        <v>131.1407025899278</v>
       </c>
       <c r="R17" t="n">
-        <v>219.0854914031357</v>
+        <v>216.4755306550058</v>
       </c>
       <c r="S17" t="n">
-        <v>240.2884492117802</v>
+        <v>239.3416483354463</v>
       </c>
       <c r="T17" t="n">
-        <v>217.2183165500331</v>
+        <v>217.0364352187702</v>
       </c>
       <c r="U17" t="n">
-        <v>247.8757434427827</v>
+        <v>247.8724195121143</v>
       </c>
       <c r="V17" t="n">
         <v>308.2281821605244</v>
@@ -23823,19 +23825,19 @@
         <v>184.1437201392488</v>
       </c>
       <c r="G18" t="n">
-        <v>169.2333254433287</v>
+        <v>169.2110946971189</v>
       </c>
       <c r="H18" t="n">
-        <v>145.7624330852993</v>
+        <v>145.547730878483</v>
       </c>
       <c r="I18" t="n">
-        <v>123.2359484578712</v>
+        <v>122.4705477659964</v>
       </c>
       <c r="J18" t="n">
-        <v>100.4973517299579</v>
+        <v>98.39703372948976</v>
       </c>
       <c r="K18" t="n">
-        <v>43.48154656593752</v>
+        <v>39.89176856940827</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -23850,22 +23852,22 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>4.245097493356042</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>84.77581017613943</v>
+        <v>81.93807492310449</v>
       </c>
       <c r="R18" t="n">
-        <v>167.3234637554063</v>
+        <v>165.9432074249376</v>
       </c>
       <c r="S18" t="n">
-        <v>218.9582364544167</v>
+        <v>218.5453100938957</v>
       </c>
       <c r="T18" t="n">
-        <v>240.2138652249231</v>
+        <v>240.1242597171736</v>
       </c>
       <c r="U18" t="n">
-        <v>257.9729636309664</v>
+        <v>257.9715010818737</v>
       </c>
       <c r="V18" t="n">
         <v>255.0969898936781</v>
@@ -23902,49 +23904,49 @@
         <v>126.9717133511</v>
       </c>
       <c r="G19" t="n">
-        <v>169.5885590376112</v>
+        <v>169.569921526768</v>
       </c>
       <c r="H19" t="n">
-        <v>168.7222936344755</v>
+        <v>168.5565892198879</v>
       </c>
       <c r="I19" t="n">
-        <v>169.5650886648345</v>
+        <v>169.0046078842048</v>
       </c>
       <c r="J19" t="n">
-        <v>140.1088610452264</v>
+        <v>138.7911890286131</v>
       </c>
       <c r="K19" t="n">
-        <v>100.7631485409216</v>
+        <v>98.5978086447768</v>
       </c>
       <c r="L19" t="n">
-        <v>79.85433933586287</v>
+        <v>77.08344976923124</v>
       </c>
       <c r="M19" t="n">
-        <v>78.84701260891001</v>
+        <v>75.92549806828202</v>
       </c>
       <c r="N19" t="n">
-        <v>64.0747527422576</v>
+        <v>61.22270528749968</v>
       </c>
       <c r="O19" t="n">
-        <v>92.52559636191177</v>
+        <v>89.89126892018564</v>
       </c>
       <c r="P19" t="n">
-        <v>110.4602209616816</v>
+        <v>108.2060987411565</v>
       </c>
       <c r="Q19" t="n">
-        <v>167.7194961588923</v>
+        <v>166.1588587736505</v>
       </c>
       <c r="R19" t="n">
-        <v>232.7104170393347</v>
+        <v>231.8724067790583</v>
       </c>
       <c r="S19" t="n">
-        <v>249.1638655277856</v>
+        <v>248.8390645433638</v>
       </c>
       <c r="T19" t="n">
-        <v>214.2693564029072</v>
+        <v>214.1897234020318</v>
       </c>
       <c r="U19" t="n">
-        <v>292.9368845269048</v>
+        <v>292.9358679354043</v>
       </c>
       <c r="V19" t="n">
         <v>232.1699497460494</v>
@@ -23981,49 +23983,49 @@
         <v>396.4306022709785</v>
       </c>
       <c r="G20" t="n">
-        <v>424.412755955792</v>
+        <v>424.3712068224367</v>
       </c>
       <c r="H20" t="n">
-        <v>351.3503870391469</v>
+        <v>350.9248719771719</v>
       </c>
       <c r="I20" t="n">
-        <v>261.2182975345403</v>
+        <v>259.61647457086</v>
       </c>
       <c r="J20" t="n">
-        <v>116.87419793854</v>
+        <v>113.3477671814256</v>
       </c>
       <c r="K20" t="n">
-        <v>91.88120483615114</v>
+        <v>86.59599926410681</v>
       </c>
       <c r="L20" t="n">
-        <v>53.41568553442607</v>
+        <v>46.85892067245942</v>
       </c>
       <c r="M20" t="n">
-        <v>7.452579786414901</v>
+        <v>0.1569155241409135</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>21.88868639101628</v>
+        <v>14.88812484839832</v>
       </c>
       <c r="P20" t="n">
-        <v>75.31191812490522</v>
+        <v>69.33710081199627</v>
       </c>
       <c r="Q20" t="n">
-        <v>135.6275415645501</v>
+        <v>131.1407025899278</v>
       </c>
       <c r="R20" t="n">
-        <v>219.0854914031357</v>
+        <v>216.4755306550058</v>
       </c>
       <c r="S20" t="n">
-        <v>240.2884492117802</v>
+        <v>239.3416483354463</v>
       </c>
       <c r="T20" t="n">
-        <v>217.2183165500331</v>
+        <v>217.0364352187702</v>
       </c>
       <c r="U20" t="n">
-        <v>247.8757434427827</v>
+        <v>247.8724195121143</v>
       </c>
       <c r="V20" t="n">
         <v>308.2281821605244</v>
@@ -24060,19 +24062,19 @@
         <v>184.1437201392488</v>
       </c>
       <c r="G21" t="n">
-        <v>169.2333254433287</v>
+        <v>169.2110946971189</v>
       </c>
       <c r="H21" t="n">
-        <v>145.7624330852993</v>
+        <v>145.547730878483</v>
       </c>
       <c r="I21" t="n">
-        <v>123.2359484578712</v>
+        <v>122.4705477659964</v>
       </c>
       <c r="J21" t="n">
-        <v>100.4973517299579</v>
+        <v>98.39703372948976</v>
       </c>
       <c r="K21" t="n">
-        <v>43.48154656593752</v>
+        <v>39.89176856940827</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -24087,22 +24089,22 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>4.245097493356042</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>84.77581017613943</v>
+        <v>81.93807492310449</v>
       </c>
       <c r="R21" t="n">
-        <v>167.3234637554063</v>
+        <v>165.9432074249376</v>
       </c>
       <c r="S21" t="n">
-        <v>218.9582364544167</v>
+        <v>218.5453100938957</v>
       </c>
       <c r="T21" t="n">
-        <v>240.2138652249231</v>
+        <v>240.1242597171736</v>
       </c>
       <c r="U21" t="n">
-        <v>257.9729636309664</v>
+        <v>257.9715010818737</v>
       </c>
       <c r="V21" t="n">
         <v>255.0969898936781</v>
@@ -24139,49 +24141,49 @@
         <v>126.9717133511</v>
       </c>
       <c r="G22" t="n">
-        <v>169.5885590376112</v>
+        <v>169.569921526768</v>
       </c>
       <c r="H22" t="n">
-        <v>168.7222936344755</v>
+        <v>168.5565892198879</v>
       </c>
       <c r="I22" t="n">
-        <v>169.5650886648345</v>
+        <v>169.0046078842048</v>
       </c>
       <c r="J22" t="n">
-        <v>140.1088610452264</v>
+        <v>138.7911890286131</v>
       </c>
       <c r="K22" t="n">
-        <v>100.7631485409216</v>
+        <v>98.5978086447768</v>
       </c>
       <c r="L22" t="n">
-        <v>79.85433933586287</v>
+        <v>77.08344976923124</v>
       </c>
       <c r="M22" t="n">
-        <v>78.84701260891001</v>
+        <v>75.92549806828202</v>
       </c>
       <c r="N22" t="n">
-        <v>64.0747527422576</v>
+        <v>61.22270528749968</v>
       </c>
       <c r="O22" t="n">
-        <v>92.52559636191177</v>
+        <v>89.89126892018564</v>
       </c>
       <c r="P22" t="n">
-        <v>110.4602209616816</v>
+        <v>108.2060987411565</v>
       </c>
       <c r="Q22" t="n">
-        <v>167.7194961588923</v>
+        <v>166.1588587736505</v>
       </c>
       <c r="R22" t="n">
-        <v>232.7104170393347</v>
+        <v>231.8724067790583</v>
       </c>
       <c r="S22" t="n">
-        <v>249.1638655277856</v>
+        <v>248.8390645433638</v>
       </c>
       <c r="T22" t="n">
-        <v>214.2693564029072</v>
+        <v>214.1897234020318</v>
       </c>
       <c r="U22" t="n">
-        <v>292.9368845269048</v>
+        <v>292.9358679354043</v>
       </c>
       <c r="V22" t="n">
         <v>232.1699497460494</v>
@@ -24218,49 +24220,49 @@
         <v>396.4306022709785</v>
       </c>
       <c r="G23" t="n">
-        <v>424.412755955792</v>
+        <v>424.3712068224367</v>
       </c>
       <c r="H23" t="n">
-        <v>351.3503870391469</v>
+        <v>350.9248719771719</v>
       </c>
       <c r="I23" t="n">
-        <v>261.2182975345403</v>
+        <v>259.61647457086</v>
       </c>
       <c r="J23" t="n">
-        <v>116.87419793854</v>
+        <v>113.3477671814256</v>
       </c>
       <c r="K23" t="n">
-        <v>91.88120483615114</v>
+        <v>86.59599926410681</v>
       </c>
       <c r="L23" t="n">
-        <v>53.41568553442607</v>
+        <v>46.85892067245942</v>
       </c>
       <c r="M23" t="n">
-        <v>7.452579786414901</v>
+        <v>0.1569155241409135</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>21.88868639101628</v>
+        <v>14.88812484839832</v>
       </c>
       <c r="P23" t="n">
-        <v>75.31191812490522</v>
+        <v>69.33710081199627</v>
       </c>
       <c r="Q23" t="n">
-        <v>135.6275415645501</v>
+        <v>131.1407025899278</v>
       </c>
       <c r="R23" t="n">
-        <v>219.0854914031357</v>
+        <v>216.4755306550058</v>
       </c>
       <c r="S23" t="n">
-        <v>240.2884492117802</v>
+        <v>239.3416483354463</v>
       </c>
       <c r="T23" t="n">
-        <v>217.2183165500331</v>
+        <v>217.0364352187702</v>
       </c>
       <c r="U23" t="n">
-        <v>247.8757434427827</v>
+        <v>247.8724195121143</v>
       </c>
       <c r="V23" t="n">
         <v>308.2281821605244</v>
@@ -24297,19 +24299,19 @@
         <v>184.1437201392488</v>
       </c>
       <c r="G24" t="n">
-        <v>169.2333254433287</v>
+        <v>169.2110946971189</v>
       </c>
       <c r="H24" t="n">
-        <v>145.7624330852993</v>
+        <v>145.547730878483</v>
       </c>
       <c r="I24" t="n">
-        <v>123.2359484578712</v>
+        <v>122.4705477659964</v>
       </c>
       <c r="J24" t="n">
-        <v>100.4973517299579</v>
+        <v>98.39703372948976</v>
       </c>
       <c r="K24" t="n">
-        <v>43.48154656593752</v>
+        <v>39.89176856940827</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -24324,22 +24326,22 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>4.245097493356042</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>84.77581017613943</v>
+        <v>81.93807492310449</v>
       </c>
       <c r="R24" t="n">
-        <v>167.3234637554063</v>
+        <v>165.9432074249376</v>
       </c>
       <c r="S24" t="n">
-        <v>218.9582364544167</v>
+        <v>218.5453100938957</v>
       </c>
       <c r="T24" t="n">
-        <v>240.2138652249231</v>
+        <v>240.1242597171736</v>
       </c>
       <c r="U24" t="n">
-        <v>257.9729636309664</v>
+        <v>257.9715010818737</v>
       </c>
       <c r="V24" t="n">
         <v>255.0969898936781</v>
@@ -24376,49 +24378,49 @@
         <v>126.9717133511</v>
       </c>
       <c r="G25" t="n">
-        <v>169.5885590376112</v>
+        <v>169.569921526768</v>
       </c>
       <c r="H25" t="n">
-        <v>168.7222936344755</v>
+        <v>168.5565892198879</v>
       </c>
       <c r="I25" t="n">
-        <v>169.5650886648345</v>
+        <v>169.0046078842048</v>
       </c>
       <c r="J25" t="n">
-        <v>140.1088610452264</v>
+        <v>138.7911890286131</v>
       </c>
       <c r="K25" t="n">
-        <v>100.7631485409216</v>
+        <v>98.5978086447768</v>
       </c>
       <c r="L25" t="n">
-        <v>79.85433933586287</v>
+        <v>77.08344976923124</v>
       </c>
       <c r="M25" t="n">
-        <v>78.84701260891001</v>
+        <v>75.92549806828202</v>
       </c>
       <c r="N25" t="n">
-        <v>64.0747527422576</v>
+        <v>61.22270528749968</v>
       </c>
       <c r="O25" t="n">
-        <v>92.52559636191177</v>
+        <v>89.89126892018564</v>
       </c>
       <c r="P25" t="n">
-        <v>110.4602209616816</v>
+        <v>108.2060987411565</v>
       </c>
       <c r="Q25" t="n">
-        <v>167.7194961588923</v>
+        <v>166.1588587736505</v>
       </c>
       <c r="R25" t="n">
-        <v>232.7104170393347</v>
+        <v>231.8724067790583</v>
       </c>
       <c r="S25" t="n">
-        <v>249.1638655277856</v>
+        <v>248.8390645433638</v>
       </c>
       <c r="T25" t="n">
-        <v>214.2693564029072</v>
+        <v>214.1897234020318</v>
       </c>
       <c r="U25" t="n">
-        <v>292.9368845269048</v>
+        <v>292.9358679354043</v>
       </c>
       <c r="V25" t="n">
         <v>232.1699497460494</v>
@@ -24455,49 +24457,49 @@
         <v>396.4306022709785</v>
       </c>
       <c r="G26" t="n">
-        <v>424.412755955792</v>
+        <v>424.3712068224367</v>
       </c>
       <c r="H26" t="n">
-        <v>351.3503870391469</v>
+        <v>350.9248719771719</v>
       </c>
       <c r="I26" t="n">
-        <v>261.2182975345403</v>
+        <v>259.61647457086</v>
       </c>
       <c r="J26" t="n">
-        <v>116.87419793854</v>
+        <v>113.3477671814256</v>
       </c>
       <c r="K26" t="n">
-        <v>91.88120483615114</v>
+        <v>86.59599926410681</v>
       </c>
       <c r="L26" t="n">
-        <v>53.41568553442607</v>
+        <v>46.85892067245942</v>
       </c>
       <c r="M26" t="n">
-        <v>7.452579786414901</v>
+        <v>0.1569155241409135</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>21.88868639101628</v>
+        <v>14.88812484839832</v>
       </c>
       <c r="P26" t="n">
-        <v>75.31191812490522</v>
+        <v>69.33710081199627</v>
       </c>
       <c r="Q26" t="n">
-        <v>135.6275415645501</v>
+        <v>131.1407025899278</v>
       </c>
       <c r="R26" t="n">
-        <v>219.0854914031357</v>
+        <v>216.4755306550058</v>
       </c>
       <c r="S26" t="n">
-        <v>240.2884492117802</v>
+        <v>239.3416483354463</v>
       </c>
       <c r="T26" t="n">
-        <v>217.2183165500331</v>
+        <v>217.0364352187702</v>
       </c>
       <c r="U26" t="n">
-        <v>247.8757434427827</v>
+        <v>247.8724195121143</v>
       </c>
       <c r="V26" t="n">
         <v>308.2281821605244</v>
@@ -24534,19 +24536,19 @@
         <v>184.1437201392488</v>
       </c>
       <c r="G27" t="n">
-        <v>169.2333254433287</v>
+        <v>169.2110946971189</v>
       </c>
       <c r="H27" t="n">
-        <v>145.7624330852993</v>
+        <v>145.547730878483</v>
       </c>
       <c r="I27" t="n">
-        <v>123.2359484578712</v>
+        <v>122.4705477659964</v>
       </c>
       <c r="J27" t="n">
-        <v>100.4973517299579</v>
+        <v>98.39703372948976</v>
       </c>
       <c r="K27" t="n">
-        <v>43.48154656593752</v>
+        <v>39.89176856940827</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -24561,22 +24563,22 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>4.245097493356042</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>84.77581017613943</v>
+        <v>81.93807492310449</v>
       </c>
       <c r="R27" t="n">
-        <v>167.3234637554063</v>
+        <v>165.9432074249376</v>
       </c>
       <c r="S27" t="n">
-        <v>218.9582364544167</v>
+        <v>218.5453100938957</v>
       </c>
       <c r="T27" t="n">
-        <v>240.2138652249231</v>
+        <v>240.1242597171736</v>
       </c>
       <c r="U27" t="n">
-        <v>257.9729636309664</v>
+        <v>257.9715010818737</v>
       </c>
       <c r="V27" t="n">
         <v>255.0969898936781</v>
@@ -24613,49 +24615,49 @@
         <v>126.9717133511</v>
       </c>
       <c r="G28" t="n">
-        <v>169.5885590376112</v>
+        <v>169.569921526768</v>
       </c>
       <c r="H28" t="n">
-        <v>168.7222936344755</v>
+        <v>168.5565892198879</v>
       </c>
       <c r="I28" t="n">
-        <v>169.5650886648345</v>
+        <v>169.0046078842048</v>
       </c>
       <c r="J28" t="n">
-        <v>140.1088610452264</v>
+        <v>138.7911890286131</v>
       </c>
       <c r="K28" t="n">
-        <v>100.7631485409216</v>
+        <v>98.5978086447768</v>
       </c>
       <c r="L28" t="n">
-        <v>79.85433933586287</v>
+        <v>77.08344976923124</v>
       </c>
       <c r="M28" t="n">
-        <v>78.84701260891001</v>
+        <v>75.92549806828202</v>
       </c>
       <c r="N28" t="n">
-        <v>64.0747527422576</v>
+        <v>61.22270528749968</v>
       </c>
       <c r="O28" t="n">
-        <v>92.52559636191177</v>
+        <v>89.89126892018564</v>
       </c>
       <c r="P28" t="n">
-        <v>110.4602209616816</v>
+        <v>108.2060987411565</v>
       </c>
       <c r="Q28" t="n">
-        <v>167.7194961588923</v>
+        <v>166.1588587736505</v>
       </c>
       <c r="R28" t="n">
-        <v>232.7104170393347</v>
+        <v>231.8724067790583</v>
       </c>
       <c r="S28" t="n">
-        <v>249.1638655277856</v>
+        <v>248.8390645433638</v>
       </c>
       <c r="T28" t="n">
-        <v>214.2693564029072</v>
+        <v>214.1897234020318</v>
       </c>
       <c r="U28" t="n">
-        <v>292.9368845269048</v>
+        <v>292.9358679354043</v>
       </c>
       <c r="V28" t="n">
         <v>232.1699497460494</v>
@@ -24692,49 +24694,49 @@
         <v>396.4306022709785</v>
       </c>
       <c r="G29" t="n">
-        <v>424.412755955792</v>
+        <v>424.3712068224367</v>
       </c>
       <c r="H29" t="n">
-        <v>351.3503870391469</v>
+        <v>350.9248719771719</v>
       </c>
       <c r="I29" t="n">
-        <v>261.2182975345403</v>
+        <v>259.61647457086</v>
       </c>
       <c r="J29" t="n">
-        <v>116.87419793854</v>
+        <v>113.3477671814256</v>
       </c>
       <c r="K29" t="n">
-        <v>91.88120483615114</v>
+        <v>86.59599926410681</v>
       </c>
       <c r="L29" t="n">
-        <v>53.41568553442607</v>
+        <v>46.85892067245942</v>
       </c>
       <c r="M29" t="n">
-        <v>7.452579786414901</v>
+        <v>0.1569155241409135</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>21.88868639101628</v>
+        <v>14.88812484839832</v>
       </c>
       <c r="P29" t="n">
-        <v>75.31191812490522</v>
+        <v>69.33710081199627</v>
       </c>
       <c r="Q29" t="n">
-        <v>135.6275415645501</v>
+        <v>131.1407025899278</v>
       </c>
       <c r="R29" t="n">
-        <v>219.0854914031357</v>
+        <v>216.4755306550058</v>
       </c>
       <c r="S29" t="n">
-        <v>240.2884492117802</v>
+        <v>239.3416483354463</v>
       </c>
       <c r="T29" t="n">
-        <v>217.2183165500331</v>
+        <v>217.0364352187702</v>
       </c>
       <c r="U29" t="n">
-        <v>247.8757434427827</v>
+        <v>247.8724195121143</v>
       </c>
       <c r="V29" t="n">
         <v>308.2281821605244</v>
@@ -24771,19 +24773,19 @@
         <v>184.1437201392488</v>
       </c>
       <c r="G30" t="n">
-        <v>169.2333254433287</v>
+        <v>169.2110946971189</v>
       </c>
       <c r="H30" t="n">
-        <v>145.7624330852993</v>
+        <v>145.547730878483</v>
       </c>
       <c r="I30" t="n">
-        <v>123.2359484578712</v>
+        <v>122.4705477659964</v>
       </c>
       <c r="J30" t="n">
-        <v>100.4973517299579</v>
+        <v>98.39703372948976</v>
       </c>
       <c r="K30" t="n">
-        <v>43.48154656593752</v>
+        <v>39.89176856940827</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -24798,22 +24800,22 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>4.245097493356042</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>84.77581017613943</v>
+        <v>81.93807492310449</v>
       </c>
       <c r="R30" t="n">
-        <v>167.3234637554063</v>
+        <v>165.9432074249376</v>
       </c>
       <c r="S30" t="n">
-        <v>218.9582364544167</v>
+        <v>218.5453100938957</v>
       </c>
       <c r="T30" t="n">
-        <v>240.2138652249231</v>
+        <v>240.1242597171736</v>
       </c>
       <c r="U30" t="n">
-        <v>257.9729636309664</v>
+        <v>257.9715010818737</v>
       </c>
       <c r="V30" t="n">
         <v>255.0969898936781</v>
@@ -24850,49 +24852,49 @@
         <v>126.9717133511</v>
       </c>
       <c r="G31" t="n">
-        <v>169.5885590376112</v>
+        <v>169.569921526768</v>
       </c>
       <c r="H31" t="n">
-        <v>168.7222936344755</v>
+        <v>168.5565892198879</v>
       </c>
       <c r="I31" t="n">
-        <v>169.5650886648345</v>
+        <v>169.0046078842048</v>
       </c>
       <c r="J31" t="n">
-        <v>140.1088610452264</v>
+        <v>138.7911890286131</v>
       </c>
       <c r="K31" t="n">
-        <v>100.7631485409216</v>
+        <v>98.5978086447768</v>
       </c>
       <c r="L31" t="n">
-        <v>79.85433933586287</v>
+        <v>77.08344976923124</v>
       </c>
       <c r="M31" t="n">
-        <v>78.84701260891001</v>
+        <v>75.92549806828202</v>
       </c>
       <c r="N31" t="n">
-        <v>64.0747527422576</v>
+        <v>61.22270528749968</v>
       </c>
       <c r="O31" t="n">
-        <v>92.52559636191177</v>
+        <v>89.89126892018564</v>
       </c>
       <c r="P31" t="n">
-        <v>110.4602209616816</v>
+        <v>108.2060987411565</v>
       </c>
       <c r="Q31" t="n">
-        <v>167.7194961588923</v>
+        <v>166.1588587736505</v>
       </c>
       <c r="R31" t="n">
-        <v>232.7104170393347</v>
+        <v>231.8724067790583</v>
       </c>
       <c r="S31" t="n">
-        <v>249.1638655277856</v>
+        <v>248.8390645433638</v>
       </c>
       <c r="T31" t="n">
-        <v>214.2693564029072</v>
+        <v>214.1897234020318</v>
       </c>
       <c r="U31" t="n">
-        <v>292.9368845269048</v>
+        <v>292.9358679354043</v>
       </c>
       <c r="V31" t="n">
         <v>232.1699497460494</v>
@@ -24929,49 +24931,49 @@
         <v>396.4306022709785</v>
       </c>
       <c r="G32" t="n">
-        <v>424.412755955792</v>
+        <v>424.3712068224367</v>
       </c>
       <c r="H32" t="n">
-        <v>351.3503870391469</v>
+        <v>350.9248719771719</v>
       </c>
       <c r="I32" t="n">
-        <v>261.2182975345403</v>
+        <v>259.61647457086</v>
       </c>
       <c r="J32" t="n">
-        <v>116.87419793854</v>
+        <v>113.3477671814256</v>
       </c>
       <c r="K32" t="n">
-        <v>91.8812048361512</v>
+        <v>86.59599926410681</v>
       </c>
       <c r="L32" t="n">
-        <v>53.41568553442607</v>
+        <v>46.85892067245942</v>
       </c>
       <c r="M32" t="n">
-        <v>7.452579786414901</v>
+        <v>0.1569155241409135</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>21.88868639101628</v>
+        <v>14.88812484839832</v>
       </c>
       <c r="P32" t="n">
-        <v>75.31191812490522</v>
+        <v>69.33710081199627</v>
       </c>
       <c r="Q32" t="n">
-        <v>135.6275415645501</v>
+        <v>131.1407025899278</v>
       </c>
       <c r="R32" t="n">
-        <v>219.0854914031357</v>
+        <v>216.4755306550058</v>
       </c>
       <c r="S32" t="n">
-        <v>240.2884492117803</v>
+        <v>239.3416483354463</v>
       </c>
       <c r="T32" t="n">
-        <v>217.2183165500331</v>
+        <v>217.0364352187702</v>
       </c>
       <c r="U32" t="n">
-        <v>247.8757434427827</v>
+        <v>247.8724195121143</v>
       </c>
       <c r="V32" t="n">
         <v>308.2281821605244</v>
@@ -25008,19 +25010,19 @@
         <v>184.1437201392488</v>
       </c>
       <c r="G33" t="n">
-        <v>169.2333254433287</v>
+        <v>169.2110946971189</v>
       </c>
       <c r="H33" t="n">
-        <v>145.7624330852993</v>
+        <v>145.547730878483</v>
       </c>
       <c r="I33" t="n">
-        <v>123.2359484578712</v>
+        <v>122.4705477659964</v>
       </c>
       <c r="J33" t="n">
-        <v>100.4973517299579</v>
+        <v>98.39703372948976</v>
       </c>
       <c r="K33" t="n">
-        <v>43.48154656593752</v>
+        <v>39.89176856940827</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -25035,22 +25037,22 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>4.245097493356042</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>84.77581017613943</v>
+        <v>81.93807492310449</v>
       </c>
       <c r="R33" t="n">
-        <v>167.3234637554063</v>
+        <v>165.9432074249376</v>
       </c>
       <c r="S33" t="n">
-        <v>218.9582364544167</v>
+        <v>218.5453100938957</v>
       </c>
       <c r="T33" t="n">
-        <v>240.2138652249231</v>
+        <v>240.1242597171736</v>
       </c>
       <c r="U33" t="n">
-        <v>257.9729636309664</v>
+        <v>257.9715010818737</v>
       </c>
       <c r="V33" t="n">
         <v>255.0969898936781</v>
@@ -25087,49 +25089,49 @@
         <v>126.9717133511</v>
       </c>
       <c r="G34" t="n">
-        <v>169.5885590376112</v>
+        <v>169.569921526768</v>
       </c>
       <c r="H34" t="n">
-        <v>168.7222936344755</v>
+        <v>168.5565892198879</v>
       </c>
       <c r="I34" t="n">
-        <v>169.5650886648345</v>
+        <v>169.0046078842048</v>
       </c>
       <c r="J34" t="n">
-        <v>140.1088610452264</v>
+        <v>138.7911890286131</v>
       </c>
       <c r="K34" t="n">
-        <v>100.7631485409216</v>
+        <v>98.5978086447768</v>
       </c>
       <c r="L34" t="n">
-        <v>79.8543393358629</v>
+        <v>77.08344976923124</v>
       </c>
       <c r="M34" t="n">
-        <v>78.84701260891001</v>
+        <v>75.92549806828202</v>
       </c>
       <c r="N34" t="n">
-        <v>64.0747527422576</v>
+        <v>61.22270528749968</v>
       </c>
       <c r="O34" t="n">
-        <v>92.52559636191177</v>
+        <v>89.89126892018564</v>
       </c>
       <c r="P34" t="n">
-        <v>110.4602209616816</v>
+        <v>108.2060987411565</v>
       </c>
       <c r="Q34" t="n">
-        <v>167.7194961588923</v>
+        <v>166.1588587736505</v>
       </c>
       <c r="R34" t="n">
-        <v>232.7104170393347</v>
+        <v>231.8724067790583</v>
       </c>
       <c r="S34" t="n">
-        <v>249.1638655277856</v>
+        <v>248.8390645433638</v>
       </c>
       <c r="T34" t="n">
-        <v>214.2693564029073</v>
+        <v>214.1897234020318</v>
       </c>
       <c r="U34" t="n">
-        <v>292.9368845269048</v>
+        <v>292.9358679354043</v>
       </c>
       <c r="V34" t="n">
         <v>232.1699497460494</v>
@@ -25166,49 +25168,49 @@
         <v>396.4306022709785</v>
       </c>
       <c r="G35" t="n">
-        <v>424.412755955792</v>
+        <v>424.3712068224367</v>
       </c>
       <c r="H35" t="n">
-        <v>351.3503870391469</v>
+        <v>350.9248719771719</v>
       </c>
       <c r="I35" t="n">
-        <v>261.2182975345403</v>
+        <v>259.61647457086</v>
       </c>
       <c r="J35" t="n">
-        <v>116.87419793854</v>
+        <v>113.3477671814256</v>
       </c>
       <c r="K35" t="n">
-        <v>91.88120483615114</v>
+        <v>86.59599926410681</v>
       </c>
       <c r="L35" t="n">
-        <v>53.41568553442607</v>
+        <v>46.85892067245942</v>
       </c>
       <c r="M35" t="n">
-        <v>7.452579786414901</v>
+        <v>0.1569155241409135</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>21.88868639101628</v>
+        <v>14.88812484839832</v>
       </c>
       <c r="P35" t="n">
-        <v>75.31191812490522</v>
+        <v>69.33710081199627</v>
       </c>
       <c r="Q35" t="n">
-        <v>135.6275415645501</v>
+        <v>131.1407025899278</v>
       </c>
       <c r="R35" t="n">
-        <v>219.0854914031357</v>
+        <v>216.4755306550058</v>
       </c>
       <c r="S35" t="n">
-        <v>240.2884492117802</v>
+        <v>239.3416483354463</v>
       </c>
       <c r="T35" t="n">
-        <v>217.2183165500331</v>
+        <v>217.0364352187702</v>
       </c>
       <c r="U35" t="n">
-        <v>247.8757434427827</v>
+        <v>247.8724195121143</v>
       </c>
       <c r="V35" t="n">
         <v>308.2281821605244</v>
@@ -25245,19 +25247,19 @@
         <v>184.1437201392488</v>
       </c>
       <c r="G36" t="n">
-        <v>169.2333254433287</v>
+        <v>169.2110946971189</v>
       </c>
       <c r="H36" t="n">
-        <v>145.7624330852993</v>
+        <v>145.547730878483</v>
       </c>
       <c r="I36" t="n">
-        <v>123.2359484578712</v>
+        <v>122.4705477659964</v>
       </c>
       <c r="J36" t="n">
-        <v>100.4973517299579</v>
+        <v>98.39703372948976</v>
       </c>
       <c r="K36" t="n">
-        <v>43.48154656593752</v>
+        <v>39.89176856940827</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -25272,22 +25274,22 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>4.245097493356042</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>84.77581017613943</v>
+        <v>81.93807492310449</v>
       </c>
       <c r="R36" t="n">
-        <v>167.3234637554063</v>
+        <v>165.9432074249376</v>
       </c>
       <c r="S36" t="n">
-        <v>218.9582364544167</v>
+        <v>218.5453100938957</v>
       </c>
       <c r="T36" t="n">
-        <v>240.2138652249231</v>
+        <v>240.1242597171736</v>
       </c>
       <c r="U36" t="n">
-        <v>257.9729636309664</v>
+        <v>257.9715010818737</v>
       </c>
       <c r="V36" t="n">
         <v>255.0969898936781</v>
@@ -25324,49 +25326,49 @@
         <v>126.9717133511</v>
       </c>
       <c r="G37" t="n">
-        <v>169.5885590376112</v>
+        <v>169.569921526768</v>
       </c>
       <c r="H37" t="n">
-        <v>168.7222936344755</v>
+        <v>168.5565892198879</v>
       </c>
       <c r="I37" t="n">
-        <v>169.5650886648345</v>
+        <v>169.0046078842048</v>
       </c>
       <c r="J37" t="n">
-        <v>140.1088610452264</v>
+        <v>138.7911890286131</v>
       </c>
       <c r="K37" t="n">
-        <v>100.7631485409216</v>
+        <v>98.5978086447768</v>
       </c>
       <c r="L37" t="n">
-        <v>79.85433933586287</v>
+        <v>77.08344976923124</v>
       </c>
       <c r="M37" t="n">
-        <v>78.84701260891001</v>
+        <v>75.92549806828202</v>
       </c>
       <c r="N37" t="n">
-        <v>64.0747527422576</v>
+        <v>61.22270528749968</v>
       </c>
       <c r="O37" t="n">
-        <v>92.52559636191177</v>
+        <v>89.89126892018564</v>
       </c>
       <c r="P37" t="n">
-        <v>110.4602209616816</v>
+        <v>108.2060987411565</v>
       </c>
       <c r="Q37" t="n">
-        <v>167.7194961588923</v>
+        <v>166.1588587736505</v>
       </c>
       <c r="R37" t="n">
-        <v>232.7104170393347</v>
+        <v>231.8724067790583</v>
       </c>
       <c r="S37" t="n">
-        <v>249.1638655277856</v>
+        <v>248.8390645433638</v>
       </c>
       <c r="T37" t="n">
-        <v>214.2693564029072</v>
+        <v>214.1897234020318</v>
       </c>
       <c r="U37" t="n">
-        <v>292.9368845269048</v>
+        <v>292.9358679354043</v>
       </c>
       <c r="V37" t="n">
         <v>232.1699497460494</v>
@@ -25403,49 +25405,49 @@
         <v>396.4306022709785</v>
       </c>
       <c r="G38" t="n">
-        <v>424.412755955792</v>
+        <v>424.3712068224367</v>
       </c>
       <c r="H38" t="n">
-        <v>351.3503870391469</v>
+        <v>350.9248719771719</v>
       </c>
       <c r="I38" t="n">
-        <v>261.2182975345403</v>
+        <v>259.6164745708601</v>
       </c>
       <c r="J38" t="n">
-        <v>116.87419793854</v>
+        <v>113.3477671814256</v>
       </c>
       <c r="K38" t="n">
-        <v>91.88120483615114</v>
+        <v>86.59599926410687</v>
       </c>
       <c r="L38" t="n">
-        <v>53.41568553442607</v>
+        <v>46.85892067245953</v>
       </c>
       <c r="M38" t="n">
-        <v>7.452579786414901</v>
+        <v>0.1569155241409703</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>21.88868639101628</v>
+        <v>14.88812484839838</v>
       </c>
       <c r="P38" t="n">
-        <v>75.31191812490522</v>
+        <v>69.33710081199632</v>
       </c>
       <c r="Q38" t="n">
-        <v>135.6275415645501</v>
+        <v>131.1407025899279</v>
       </c>
       <c r="R38" t="n">
-        <v>219.0854914031357</v>
+        <v>216.4755306550058</v>
       </c>
       <c r="S38" t="n">
-        <v>240.2884492117802</v>
+        <v>239.3416483354463</v>
       </c>
       <c r="T38" t="n">
-        <v>217.2183165500331</v>
+        <v>217.0364352187702</v>
       </c>
       <c r="U38" t="n">
-        <v>247.8757434427827</v>
+        <v>247.8724195121143</v>
       </c>
       <c r="V38" t="n">
         <v>308.2281821605244</v>
@@ -25482,19 +25484,19 @@
         <v>184.1437201392488</v>
       </c>
       <c r="G39" t="n">
-        <v>169.2333254433287</v>
+        <v>169.2110946971189</v>
       </c>
       <c r="H39" t="n">
-        <v>145.7624330852993</v>
+        <v>145.547730878483</v>
       </c>
       <c r="I39" t="n">
-        <v>123.2359484578712</v>
+        <v>122.4705477659964</v>
       </c>
       <c r="J39" t="n">
-        <v>100.4973517299579</v>
+        <v>98.39703372948978</v>
       </c>
       <c r="K39" t="n">
-        <v>43.48154656593752</v>
+        <v>39.8917685694083</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -25509,22 +25511,22 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>4.245097493356042</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>84.77581017613943</v>
+        <v>81.93807492310449</v>
       </c>
       <c r="R39" t="n">
-        <v>167.3234637554063</v>
+        <v>165.9432074249376</v>
       </c>
       <c r="S39" t="n">
-        <v>218.9582364544167</v>
+        <v>218.5453100938957</v>
       </c>
       <c r="T39" t="n">
-        <v>240.2138652249231</v>
+        <v>240.1242597171736</v>
       </c>
       <c r="U39" t="n">
-        <v>257.9729636309664</v>
+        <v>257.9715010818737</v>
       </c>
       <c r="V39" t="n">
         <v>255.0969898936781</v>
@@ -25561,49 +25563,49 @@
         <v>126.9717133511</v>
       </c>
       <c r="G40" t="n">
-        <v>169.5885590376112</v>
+        <v>169.569921526768</v>
       </c>
       <c r="H40" t="n">
-        <v>168.7222936344755</v>
+        <v>168.5565892198879</v>
       </c>
       <c r="I40" t="n">
-        <v>169.5650886648345</v>
+        <v>169.0046078842048</v>
       </c>
       <c r="J40" t="n">
-        <v>140.1088610452264</v>
+        <v>138.7911890286131</v>
       </c>
       <c r="K40" t="n">
-        <v>100.7631485409216</v>
+        <v>98.59780864477682</v>
       </c>
       <c r="L40" t="n">
-        <v>79.85433933586287</v>
+        <v>77.08344976923124</v>
       </c>
       <c r="M40" t="n">
-        <v>78.84701260891001</v>
+        <v>75.92549806828205</v>
       </c>
       <c r="N40" t="n">
-        <v>64.0747527422576</v>
+        <v>61.22270528749971</v>
       </c>
       <c r="O40" t="n">
-        <v>92.52559636191177</v>
+        <v>89.89126892018567</v>
       </c>
       <c r="P40" t="n">
-        <v>110.4602209616816</v>
+        <v>108.2060987411565</v>
       </c>
       <c r="Q40" t="n">
-        <v>167.7194961588923</v>
+        <v>166.1588587736505</v>
       </c>
       <c r="R40" t="n">
-        <v>232.7104170393347</v>
+        <v>231.8724067790583</v>
       </c>
       <c r="S40" t="n">
-        <v>249.1638655277856</v>
+        <v>248.8390645433638</v>
       </c>
       <c r="T40" t="n">
-        <v>214.2693564029072</v>
+        <v>214.1897234020318</v>
       </c>
       <c r="U40" t="n">
-        <v>292.9368845269048</v>
+        <v>292.9358679354043</v>
       </c>
       <c r="V40" t="n">
         <v>232.1699497460494</v>
@@ -25640,49 +25642,49 @@
         <v>396.4306022709785</v>
       </c>
       <c r="G41" t="n">
-        <v>424.412755955792</v>
+        <v>424.3712068224367</v>
       </c>
       <c r="H41" t="n">
-        <v>351.3503870391469</v>
+        <v>350.9248719771719</v>
       </c>
       <c r="I41" t="n">
-        <v>261.2182975345403</v>
+        <v>259.61647457086</v>
       </c>
       <c r="J41" t="n">
-        <v>116.87419793854</v>
+        <v>113.3477671814256</v>
       </c>
       <c r="K41" t="n">
-        <v>91.88120483615114</v>
+        <v>86.59599926410681</v>
       </c>
       <c r="L41" t="n">
-        <v>53.41568553442607</v>
+        <v>46.85892067245942</v>
       </c>
       <c r="M41" t="n">
-        <v>7.452579786414901</v>
+        <v>0.1569155241409135</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>21.88868639101628</v>
+        <v>14.88812484839832</v>
       </c>
       <c r="P41" t="n">
-        <v>75.31191812490522</v>
+        <v>69.33710081199627</v>
       </c>
       <c r="Q41" t="n">
-        <v>135.6275415645501</v>
+        <v>131.1407025899278</v>
       </c>
       <c r="R41" t="n">
-        <v>219.0854914031357</v>
+        <v>216.4755306550058</v>
       </c>
       <c r="S41" t="n">
-        <v>240.2884492117802</v>
+        <v>239.3416483354463</v>
       </c>
       <c r="T41" t="n">
-        <v>217.2183165500331</v>
+        <v>217.0364352187702</v>
       </c>
       <c r="U41" t="n">
-        <v>247.8757434427827</v>
+        <v>247.8724195121143</v>
       </c>
       <c r="V41" t="n">
         <v>308.2281821605244</v>
@@ -25719,19 +25721,19 @@
         <v>184.1437201392488</v>
       </c>
       <c r="G42" t="n">
-        <v>169.2333254433287</v>
+        <v>169.2110946971189</v>
       </c>
       <c r="H42" t="n">
-        <v>145.7624330852993</v>
+        <v>145.547730878483</v>
       </c>
       <c r="I42" t="n">
-        <v>123.2359484578712</v>
+        <v>122.4705477659964</v>
       </c>
       <c r="J42" t="n">
-        <v>100.4973517299579</v>
+        <v>98.39703372948976</v>
       </c>
       <c r="K42" t="n">
-        <v>43.48154656593752</v>
+        <v>39.89176856940827</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -25746,22 +25748,22 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>4.245097493356042</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>84.77581017613943</v>
+        <v>81.93807492310449</v>
       </c>
       <c r="R42" t="n">
-        <v>167.3234637554063</v>
+        <v>165.9432074249376</v>
       </c>
       <c r="S42" t="n">
-        <v>218.9582364544167</v>
+        <v>218.5453100938957</v>
       </c>
       <c r="T42" t="n">
-        <v>240.2138652249231</v>
+        <v>240.1242597171736</v>
       </c>
       <c r="U42" t="n">
-        <v>257.9729636309664</v>
+        <v>257.9715010818737</v>
       </c>
       <c r="V42" t="n">
         <v>255.0969898936781</v>
@@ -25798,49 +25800,49 @@
         <v>126.9717133511</v>
       </c>
       <c r="G43" t="n">
-        <v>169.5885590376112</v>
+        <v>169.569921526768</v>
       </c>
       <c r="H43" t="n">
-        <v>168.7222936344755</v>
+        <v>168.5565892198879</v>
       </c>
       <c r="I43" t="n">
-        <v>169.5650886648345</v>
+        <v>169.0046078842048</v>
       </c>
       <c r="J43" t="n">
-        <v>140.1088610452264</v>
+        <v>138.7911890286131</v>
       </c>
       <c r="K43" t="n">
-        <v>100.7631485409216</v>
+        <v>98.5978086447768</v>
       </c>
       <c r="L43" t="n">
-        <v>79.85433933586287</v>
+        <v>77.08344976923124</v>
       </c>
       <c r="M43" t="n">
-        <v>78.84701260891001</v>
+        <v>75.92549806828202</v>
       </c>
       <c r="N43" t="n">
-        <v>64.0747527422576</v>
+        <v>61.22270528749968</v>
       </c>
       <c r="O43" t="n">
-        <v>92.52559636191177</v>
+        <v>89.89126892018564</v>
       </c>
       <c r="P43" t="n">
-        <v>110.4602209616816</v>
+        <v>108.2060987411565</v>
       </c>
       <c r="Q43" t="n">
-        <v>167.7194961588923</v>
+        <v>166.1588587736505</v>
       </c>
       <c r="R43" t="n">
-        <v>232.7104170393347</v>
+        <v>231.8724067790583</v>
       </c>
       <c r="S43" t="n">
-        <v>249.1638655277856</v>
+        <v>248.8390645433638</v>
       </c>
       <c r="T43" t="n">
-        <v>214.2693564029072</v>
+        <v>214.1897234020318</v>
       </c>
       <c r="U43" t="n">
-        <v>292.9368845269048</v>
+        <v>292.9358679354043</v>
       </c>
       <c r="V43" t="n">
         <v>232.1699497460494</v>
@@ -25877,49 +25879,49 @@
         <v>396.4306022709785</v>
       </c>
       <c r="G44" t="n">
-        <v>424.412755955792</v>
+        <v>424.3712068224367</v>
       </c>
       <c r="H44" t="n">
-        <v>351.3503870391469</v>
+        <v>350.9248719771719</v>
       </c>
       <c r="I44" t="n">
-        <v>261.2182975345403</v>
+        <v>259.61647457086</v>
       </c>
       <c r="J44" t="n">
-        <v>116.87419793854</v>
+        <v>113.3477671814256</v>
       </c>
       <c r="K44" t="n">
-        <v>91.88120483615114</v>
+        <v>86.59599926410681</v>
       </c>
       <c r="L44" t="n">
-        <v>53.41568553442607</v>
+        <v>46.85892067245942</v>
       </c>
       <c r="M44" t="n">
-        <v>7.452579786414901</v>
+        <v>0.1569155241409135</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>21.88868639101628</v>
+        <v>14.88812484839832</v>
       </c>
       <c r="P44" t="n">
-        <v>75.31191812490522</v>
+        <v>69.33710081199627</v>
       </c>
       <c r="Q44" t="n">
-        <v>135.6275415645501</v>
+        <v>131.1407025899278</v>
       </c>
       <c r="R44" t="n">
-        <v>219.0854914031357</v>
+        <v>216.4755306550058</v>
       </c>
       <c r="S44" t="n">
-        <v>240.2884492117802</v>
+        <v>239.3416483354463</v>
       </c>
       <c r="T44" t="n">
-        <v>217.2183165500331</v>
+        <v>217.0364352187702</v>
       </c>
       <c r="U44" t="n">
-        <v>247.8757434427827</v>
+        <v>247.8724195121143</v>
       </c>
       <c r="V44" t="n">
         <v>308.2281821605244</v>
@@ -25956,19 +25958,19 @@
         <v>184.1437201392488</v>
       </c>
       <c r="G45" t="n">
-        <v>169.2333254433287</v>
+        <v>169.2110946971189</v>
       </c>
       <c r="H45" t="n">
-        <v>145.7624330852993</v>
+        <v>145.547730878483</v>
       </c>
       <c r="I45" t="n">
-        <v>123.2359484578712</v>
+        <v>122.4705477659964</v>
       </c>
       <c r="J45" t="n">
-        <v>100.4973517299579</v>
+        <v>98.39703372948976</v>
       </c>
       <c r="K45" t="n">
-        <v>43.48154656593752</v>
+        <v>39.89176856940827</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -25983,22 +25985,22 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>4.245097493356042</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>84.77581017613943</v>
+        <v>81.93807492310449</v>
       </c>
       <c r="R45" t="n">
-        <v>167.3234637554063</v>
+        <v>165.9432074249376</v>
       </c>
       <c r="S45" t="n">
-        <v>218.9582364544167</v>
+        <v>218.5453100938957</v>
       </c>
       <c r="T45" t="n">
-        <v>240.2138652249231</v>
+        <v>240.1242597171736</v>
       </c>
       <c r="U45" t="n">
-        <v>257.9729636309664</v>
+        <v>257.9715010818737</v>
       </c>
       <c r="V45" t="n">
         <v>255.0969898936781</v>
@@ -26035,49 +26037,49 @@
         <v>126.9717133511</v>
       </c>
       <c r="G46" t="n">
-        <v>169.5885590376112</v>
+        <v>169.569921526768</v>
       </c>
       <c r="H46" t="n">
-        <v>168.7222936344755</v>
+        <v>168.5565892198879</v>
       </c>
       <c r="I46" t="n">
-        <v>169.5650886648345</v>
+        <v>169.0046078842048</v>
       </c>
       <c r="J46" t="n">
-        <v>140.1088610452264</v>
+        <v>138.7911890286131</v>
       </c>
       <c r="K46" t="n">
-        <v>100.7631485409216</v>
+        <v>98.5978086447768</v>
       </c>
       <c r="L46" t="n">
-        <v>79.85433933586287</v>
+        <v>77.08344976923124</v>
       </c>
       <c r="M46" t="n">
-        <v>78.84701260891001</v>
+        <v>75.92549806828202</v>
       </c>
       <c r="N46" t="n">
-        <v>64.0747527422576</v>
+        <v>61.22270528749968</v>
       </c>
       <c r="O46" t="n">
-        <v>92.52559636191177</v>
+        <v>89.89126892018564</v>
       </c>
       <c r="P46" t="n">
-        <v>110.4602209616816</v>
+        <v>108.2060987411565</v>
       </c>
       <c r="Q46" t="n">
-        <v>167.7194961588923</v>
+        <v>166.1588587736505</v>
       </c>
       <c r="R46" t="n">
-        <v>232.7104170393347</v>
+        <v>231.8724067790583</v>
       </c>
       <c r="S46" t="n">
-        <v>249.1638655277856</v>
+        <v>248.8390645433638</v>
       </c>
       <c r="T46" t="n">
-        <v>214.2693564029072</v>
+        <v>214.1897234020318</v>
       </c>
       <c r="U46" t="n">
-        <v>292.9368845269048</v>
+        <v>292.9358679354043</v>
       </c>
       <c r="V46" t="n">
         <v>232.1699497460494</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>225020.7834968179</v>
+        <v>231971.1402299587</v>
       </c>
     </row>
     <row r="3">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>402797.004238487</v>
+        <v>409052.2343961908</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>402797.004238487</v>
+        <v>409052.2343961908</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>402797.004238487</v>
+        <v>409052.2343961908</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>402797.004238487</v>
+        <v>409052.2343961908</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>402797.004238487</v>
+        <v>409052.2343961908</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>402797.004238487</v>
+        <v>409052.2343961908</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>402797.004238487</v>
+        <v>409052.2343961908</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>402797.004238487</v>
+        <v>409052.2343961908</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>402797.004238487</v>
+        <v>409052.2343961908</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>402797.004238487</v>
+        <v>409052.2343961908</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>402797.004238487</v>
+        <v>409052.2343961908</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>402797.004238487</v>
+        <v>409052.2343961908</v>
       </c>
     </row>
   </sheetData>
@@ -26311,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>77891.80967197544</v>
+        <v>80297.70238729344</v>
       </c>
       <c r="C2" t="n">
         <v>104895.844469868</v>
@@ -26320,40 +26322,40 @@
         <v>116068.2694823563</v>
       </c>
       <c r="E2" t="n">
-        <v>139429.7322363994</v>
+        <v>141595.0042140661</v>
       </c>
       <c r="F2" t="n">
-        <v>139429.7322363994</v>
+        <v>141595.0042140661</v>
       </c>
       <c r="G2" t="n">
-        <v>139429.7322363994</v>
+        <v>141595.004214066</v>
       </c>
       <c r="H2" t="n">
-        <v>139429.7322363994</v>
+        <v>141595.0042140661</v>
       </c>
       <c r="I2" t="n">
-        <v>139429.7322363994</v>
+        <v>141595.0042140661</v>
       </c>
       <c r="J2" t="n">
-        <v>139429.7322363994</v>
+        <v>141595.0042140661</v>
       </c>
       <c r="K2" t="n">
-        <v>139429.7322363994</v>
+        <v>141595.0042140661</v>
       </c>
       <c r="L2" t="n">
-        <v>139429.7322363994</v>
+        <v>141595.0042140661</v>
       </c>
       <c r="M2" t="n">
-        <v>139429.7322363994</v>
+        <v>141595.0042140661</v>
       </c>
       <c r="N2" t="n">
-        <v>139429.7322363994</v>
+        <v>141595.0042140661</v>
       </c>
       <c r="O2" t="n">
-        <v>139429.7322363994</v>
+        <v>141595.0042140661</v>
       </c>
       <c r="P2" t="n">
-        <v>139429.7322363994</v>
+        <v>141595.0042140661</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>272992.4869025886</v>
+        <v>281424.5754410552</v>
       </c>
       <c r="C3" t="n">
-        <v>89436.23518044449</v>
+        <v>81468.01901139657</v>
       </c>
       <c r="D3" t="n">
         <v>36206.25146095255</v>
       </c>
       <c r="E3" t="n">
-        <v>77058.67368432044</v>
+        <v>85362.1224076013</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26467,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>39803.56090388614</v>
+        <v>39994.32164511583</v>
       </c>
       <c r="C5" t="n">
         <v>41944.68285061335</v>
@@ -26476,40 +26478,40 @@
         <v>42866.31220493119</v>
       </c>
       <c r="E5" t="n">
-        <v>11329.66666529316</v>
+        <v>11554.97722819562</v>
       </c>
       <c r="F5" t="n">
-        <v>11329.66666529316</v>
+        <v>11554.97722819562</v>
       </c>
       <c r="G5" t="n">
-        <v>11329.66666529316</v>
+        <v>11554.97722819562</v>
       </c>
       <c r="H5" t="n">
-        <v>11329.66666529316</v>
+        <v>11554.97722819562</v>
       </c>
       <c r="I5" t="n">
-        <v>11329.66666529316</v>
+        <v>11554.97722819562</v>
       </c>
       <c r="J5" t="n">
-        <v>11329.66666529316</v>
+        <v>11554.97722819562</v>
       </c>
       <c r="K5" t="n">
-        <v>11329.66666529316</v>
+        <v>11554.97722819562</v>
       </c>
       <c r="L5" t="n">
-        <v>11329.66666529316</v>
+        <v>11554.97722819562</v>
       </c>
       <c r="M5" t="n">
-        <v>11329.66666529316</v>
+        <v>11554.97722819562</v>
       </c>
       <c r="N5" t="n">
-        <v>11329.66666529316</v>
+        <v>11554.97722819562</v>
       </c>
       <c r="O5" t="n">
-        <v>11329.66666529316</v>
+        <v>11554.97722819562</v>
       </c>
       <c r="P5" t="n">
-        <v>11329.66666529316</v>
+        <v>11554.97722819562</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-234904.2381344993</v>
+        <v>-241121.1946988776</v>
       </c>
       <c r="C6" t="n">
-        <v>-26485.07356118984</v>
+        <v>-18516.85739214192</v>
       </c>
       <c r="D6" t="n">
         <v>36995.70581647255</v>
       </c>
       <c r="E6" t="n">
-        <v>51041.3918867858</v>
+        <v>44677.90457826917</v>
       </c>
       <c r="F6" t="n">
-        <v>128100.0655711062</v>
+        <v>130040.0269858705</v>
       </c>
       <c r="G6" t="n">
-        <v>128100.0655711062</v>
+        <v>130040.0269858704</v>
       </c>
       <c r="H6" t="n">
-        <v>128100.0655711062</v>
+        <v>130040.0269858705</v>
       </c>
       <c r="I6" t="n">
-        <v>128100.0655711062</v>
+        <v>130040.0269858705</v>
       </c>
       <c r="J6" t="n">
-        <v>128100.0655711062</v>
+        <v>130040.0269858705</v>
       </c>
       <c r="K6" t="n">
-        <v>128100.0655711062</v>
+        <v>130040.0269858705</v>
       </c>
       <c r="L6" t="n">
-        <v>128100.0655711062</v>
+        <v>130040.0269858705</v>
       </c>
       <c r="M6" t="n">
-        <v>128100.0655711062</v>
+        <v>130040.0269858705</v>
       </c>
       <c r="N6" t="n">
-        <v>128100.0655711062</v>
+        <v>130040.0269858705</v>
       </c>
       <c r="O6" t="n">
-        <v>128100.0655711062</v>
+        <v>130040.0269858705</v>
       </c>
       <c r="P6" t="n">
-        <v>128100.0655711062</v>
+        <v>130040.0269858705</v>
       </c>
     </row>
   </sheetData>
@@ -26735,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>283.3009588938595</v>
+        <v>292.051451610818</v>
       </c>
       <c r="C3" t="n">
         <v>381.5175619547406</v>
@@ -26744,40 +26746,40 @@
         <v>423.7941378408804</v>
       </c>
       <c r="E3" t="n">
-        <v>519.7094800593193</v>
+        <v>530.0448269814503</v>
       </c>
       <c r="F3" t="n">
-        <v>519.7094800593193</v>
+        <v>530.0448269814503</v>
       </c>
       <c r="G3" t="n">
-        <v>519.7094800593193</v>
+        <v>530.0448269814503</v>
       </c>
       <c r="H3" t="n">
-        <v>519.7094800593193</v>
+        <v>530.0448269814503</v>
       </c>
       <c r="I3" t="n">
-        <v>519.7094800593193</v>
+        <v>530.0448269814503</v>
       </c>
       <c r="J3" t="n">
-        <v>519.7094800593193</v>
+        <v>530.0448269814503</v>
       </c>
       <c r="K3" t="n">
-        <v>519.7094800593193</v>
+        <v>530.0448269814503</v>
       </c>
       <c r="L3" t="n">
-        <v>519.7094800593193</v>
+        <v>530.0448269814503</v>
       </c>
       <c r="M3" t="n">
-        <v>519.7094800593193</v>
+        <v>530.0448269814503</v>
       </c>
       <c r="N3" t="n">
-        <v>519.7094800593193</v>
+        <v>530.0448269814502</v>
       </c>
       <c r="O3" t="n">
-        <v>519.7094800593193</v>
+        <v>530.0448269814503</v>
       </c>
       <c r="P3" t="n">
-        <v>519.7094800593193</v>
+        <v>530.0448269814503</v>
       </c>
     </row>
     <row r="4">
@@ -26957,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>283.3009588938595</v>
+        <v>292.051451610818</v>
       </c>
       <c r="C3" t="n">
-        <v>98.21660306088114</v>
+        <v>89.46611034392255</v>
       </c>
       <c r="D3" t="n">
         <v>42.27657588613982</v>
       </c>
       <c r="E3" t="n">
-        <v>95.91534221843887</v>
+        <v>106.2506891405699</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.138898327211495</v>
+        <v>1.174076187380172</v>
       </c>
       <c r="H2" t="n">
-        <v>11.66374249355472</v>
+        <v>12.02400775400719</v>
       </c>
       <c r="I2" t="n">
-        <v>43.90737775982119</v>
+        <v>45.26357221397413</v>
       </c>
       <c r="J2" t="n">
-        <v>96.66257189916668</v>
+        <v>99.64824880865798</v>
       </c>
       <c r="K2" t="n">
-        <v>144.8721380900293</v>
+        <v>149.3468938204607</v>
       </c>
       <c r="L2" t="n">
-        <v>179.7266977714281</v>
+        <v>185.2780279399967</v>
       </c>
       <c r="M2" t="n">
-        <v>199.9805808979755</v>
+        <v>206.1575053373188</v>
       </c>
       <c r="N2" t="n">
-        <v>203.2164757701652</v>
+        <v>209.4933493047128</v>
       </c>
       <c r="O2" t="n">
-        <v>191.8915555289559</v>
+        <v>197.8186292164511</v>
       </c>
       <c r="P2" t="n">
-        <v>163.7750030759221</v>
+        <v>168.8336233405031</v>
       </c>
       <c r="Q2" t="n">
-        <v>122.9882067326604</v>
+        <v>126.7870198799507</v>
       </c>
       <c r="R2" t="n">
-        <v>71.54132204669911</v>
+        <v>73.75106330551981</v>
       </c>
       <c r="S2" t="n">
-        <v>25.95264563133196</v>
+        <v>26.7542611199257</v>
       </c>
       <c r="T2" t="n">
-        <v>4.985527427368321</v>
+        <v>5.139518510256706</v>
       </c>
       <c r="U2" t="n">
-        <v>0.09111186617691955</v>
+        <v>0.09392609499041375</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6093643266773582</v>
+        <v>0.6281861412006275</v>
       </c>
       <c r="H3" t="n">
-        <v>5.885176523436592</v>
+        <v>6.066955626858693</v>
       </c>
       <c r="I3" t="n">
-        <v>20.98030686147922</v>
+        <v>21.62833863344266</v>
       </c>
       <c r="J3" t="n">
-        <v>57.57156561823235</v>
+        <v>59.34981433159088</v>
       </c>
       <c r="K3" t="n">
-        <v>98.39897550561534</v>
+        <v>101.4382857920329</v>
       </c>
       <c r="L3" t="n">
-        <v>132.3095657550992</v>
+        <v>136.3962935093731</v>
       </c>
       <c r="M3" t="n">
-        <v>154.3990225971534</v>
+        <v>159.1680411278958</v>
       </c>
       <c r="N3" t="n">
-        <v>158.4855052966696</v>
+        <v>163.3807455572632</v>
       </c>
       <c r="O3" t="n">
-        <v>144.983274689766</v>
+        <v>149.4614631653967</v>
       </c>
       <c r="P3" t="n">
-        <v>116.3618598898194</v>
+        <v>119.956000945583</v>
       </c>
       <c r="Q3" t="n">
-        <v>77.78482177025366</v>
+        <v>80.18740988378538</v>
       </c>
       <c r="R3" t="n">
-        <v>37.83404126510827</v>
+        <v>39.00264480191266</v>
       </c>
       <c r="S3" t="n">
-        <v>11.31867510297636</v>
+        <v>11.66828205256428</v>
       </c>
       <c r="T3" t="n">
-        <v>2.456165860598649</v>
+        <v>2.532030981418318</v>
       </c>
       <c r="U3" t="n">
-        <v>0.04008975833403674</v>
+        <v>0.04132803560530446</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5108705816118777</v>
+        <v>0.5266501586424587</v>
       </c>
       <c r="H4" t="n">
-        <v>4.542103898331062</v>
+        <v>4.682398683202955</v>
       </c>
       <c r="I4" t="n">
-        <v>15.36327167247356</v>
+        <v>15.83780658899322</v>
       </c>
       <c r="J4" t="n">
-        <v>36.11855011995976</v>
+        <v>37.23416621602183</v>
       </c>
       <c r="K4" t="n">
-        <v>59.35387302727087</v>
+        <v>61.18717297682382</v>
       </c>
       <c r="L4" t="n">
-        <v>75.95252265164227</v>
+        <v>78.29851540398883</v>
       </c>
       <c r="M4" t="n">
-        <v>80.08128580666916</v>
+        <v>82.55480623156286</v>
       </c>
       <c r="N4" t="n">
-        <v>78.1771318206613</v>
+        <v>80.59183745844103</v>
       </c>
       <c r="O4" t="n">
-        <v>72.20923457183162</v>
+        <v>74.4396060597541</v>
       </c>
       <c r="P4" t="n">
-        <v>61.78747470694926</v>
+        <v>63.69594282344789</v>
       </c>
       <c r="Q4" t="n">
-        <v>42.77844479297278</v>
+        <v>44.09976919323353</v>
       </c>
       <c r="R4" t="n">
-        <v>22.97059906047588</v>
+        <v>23.68010622405091</v>
       </c>
       <c r="S4" t="n">
-        <v>8.90308095409063</v>
+        <v>9.178075946523572</v>
       </c>
       <c r="T4" t="n">
-        <v>2.182810666887113</v>
+        <v>2.250232496017778</v>
       </c>
       <c r="U4" t="n">
-        <v>0.02786566808792064</v>
+        <v>0.02872637228958869</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>2.08928434194701</v>
+        <v>2.130833475302311</v>
       </c>
       <c r="H11" t="n">
-        <v>21.39688326696483</v>
+        <v>21.8223983289398</v>
       </c>
       <c r="I11" t="n">
-        <v>80.5471345929122</v>
+        <v>82.14895755659244</v>
       </c>
       <c r="J11" t="n">
-        <v>177.3253969173253</v>
+        <v>180.8518276744397</v>
       </c>
       <c r="K11" t="n">
-        <v>265.7648031119423</v>
+        <v>271.0500086839866</v>
       </c>
       <c r="L11" t="n">
-        <v>329.7047387918032</v>
+        <v>336.2615036537698</v>
       </c>
       <c r="M11" t="n">
-        <v>366.8600492079033</v>
+        <v>374.1557134701773</v>
       </c>
       <c r="N11" t="n">
         <v>372.7962283444602</v>
       </c>
       <c r="O11" t="n">
-        <v>352.0209071692246</v>
+        <v>359.0214687118426</v>
       </c>
       <c r="P11" t="n">
-        <v>300.4416999774078</v>
+        <v>306.4165172903167</v>
       </c>
       <c r="Q11" t="n">
-        <v>225.6192044814304</v>
+        <v>230.1060434560526</v>
       </c>
       <c r="R11" t="n">
-        <v>131.241007544829</v>
+        <v>133.8509682929589</v>
       </c>
       <c r="S11" t="n">
-        <v>47.60956694211755</v>
+        <v>48.55636781845147</v>
       </c>
       <c r="T11" t="n">
-        <v>9.145842206873043</v>
+        <v>9.327723538135873</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1671427473557608</v>
+        <v>0.1704666780241849</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,19 +31831,19 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.117865674089856</v>
+        <v>1.140096420299723</v>
       </c>
       <c r="H12" t="n">
-        <v>10.79622901028888</v>
+        <v>11.01093121710523</v>
       </c>
       <c r="I12" t="n">
-        <v>38.48791904212884</v>
+        <v>39.25331973400364</v>
       </c>
       <c r="J12" t="n">
-        <v>105.6137916033755</v>
+        <v>107.7141096038436</v>
       </c>
       <c r="K12" t="n">
-        <v>180.5107917673958</v>
+        <v>184.1005697639251</v>
       </c>
       <c r="L12" t="n">
         <v>225.1508671422956</v>
@@ -31856,22 +31858,22 @@
         <v>231.7188972222222</v>
       </c>
       <c r="P12" t="n">
-        <v>213.4633145549306</v>
+        <v>217.7084120482866</v>
       </c>
       <c r="Q12" t="n">
-        <v>142.6945727136456</v>
+        <v>145.5323079666805</v>
       </c>
       <c r="R12" t="n">
-        <v>69.40573018603516</v>
+        <v>70.78598651650391</v>
       </c>
       <c r="S12" t="n">
-        <v>20.76386460425675</v>
+        <v>21.17679096477774</v>
       </c>
       <c r="T12" t="n">
-        <v>4.505783133721833</v>
+        <v>4.595388641471252</v>
       </c>
       <c r="U12" t="n">
-        <v>0.07354379434801692</v>
+        <v>0.07500634344077131</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.9371810296151658</v>
+        <v>0.9558185404583529</v>
       </c>
       <c r="H13" t="n">
-        <v>8.332391336033025</v>
+        <v>8.498095750620635</v>
       </c>
       <c r="I13" t="n">
-        <v>28.18358950879063</v>
+        <v>28.7440702894203</v>
       </c>
       <c r="J13" t="n">
-        <v>66.25869879379222</v>
+        <v>67.57637081040555</v>
       </c>
       <c r="K13" t="n">
-        <v>108.8833959861983</v>
+        <v>111.0487358823432</v>
       </c>
       <c r="L13" t="n">
-        <v>139.3332596211493</v>
+        <v>142.104149187781</v>
       </c>
       <c r="M13" t="n">
-        <v>146.9073863059482</v>
+        <v>149.8289008465762</v>
       </c>
       <c r="N13" t="n">
-        <v>143.4142570137463</v>
+        <v>146.2663044685042</v>
       </c>
       <c r="O13" t="n">
-        <v>132.4662786223328</v>
+        <v>135.1006060640589</v>
       </c>
       <c r="P13" t="n">
-        <v>113.3477856181833</v>
+        <v>115.6019078387084</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.47613148895721</v>
+        <v>80.036768874199</v>
       </c>
       <c r="R13" t="n">
-        <v>42.13906702251462</v>
+        <v>42.97707728279102</v>
       </c>
       <c r="S13" t="n">
-        <v>16.33250939792975</v>
+        <v>16.65731038235147</v>
       </c>
       <c r="T13" t="n">
-        <v>4.004318944719344</v>
+        <v>4.08395194559478</v>
       </c>
       <c r="U13" t="n">
-        <v>0.05111896525173638</v>
+        <v>0.05213555675227386</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>2.08928434194701</v>
+        <v>2.130833475302311</v>
       </c>
       <c r="H14" t="n">
-        <v>21.39688326696483</v>
+        <v>21.8223983289398</v>
       </c>
       <c r="I14" t="n">
-        <v>80.5471345929122</v>
+        <v>82.14895755659244</v>
       </c>
       <c r="J14" t="n">
-        <v>177.3253969173253</v>
+        <v>180.8518276744397</v>
       </c>
       <c r="K14" t="n">
-        <v>265.7648031119423</v>
+        <v>271.0500086839866</v>
       </c>
       <c r="L14" t="n">
-        <v>329.7047387918032</v>
+        <v>336.2615036537698</v>
       </c>
       <c r="M14" t="n">
-        <v>366.8600492079033</v>
+        <v>374.1557134701773</v>
       </c>
       <c r="N14" t="n">
         <v>372.7962283444602</v>
       </c>
       <c r="O14" t="n">
-        <v>352.0209071692246</v>
+        <v>359.0214687118426</v>
       </c>
       <c r="P14" t="n">
-        <v>300.4416999774078</v>
+        <v>306.4165172903167</v>
       </c>
       <c r="Q14" t="n">
-        <v>225.6192044814304</v>
+        <v>230.1060434560526</v>
       </c>
       <c r="R14" t="n">
-        <v>131.241007544829</v>
+        <v>133.8509682929589</v>
       </c>
       <c r="S14" t="n">
-        <v>47.60956694211755</v>
+        <v>48.55636781845147</v>
       </c>
       <c r="T14" t="n">
-        <v>9.145842206873043</v>
+        <v>9.327723538135873</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1671427473557608</v>
+        <v>0.1704666780241849</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,19 +32068,19 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.117865674089856</v>
+        <v>1.140096420299723</v>
       </c>
       <c r="H15" t="n">
-        <v>10.79622901028888</v>
+        <v>11.01093121710523</v>
       </c>
       <c r="I15" t="n">
-        <v>38.48791904212884</v>
+        <v>39.25331973400364</v>
       </c>
       <c r="J15" t="n">
-        <v>105.6137916033755</v>
+        <v>107.7141096038436</v>
       </c>
       <c r="K15" t="n">
-        <v>180.5107917673958</v>
+        <v>184.1005697639251</v>
       </c>
       <c r="L15" t="n">
         <v>225.1508671422956</v>
@@ -32093,22 +32095,22 @@
         <v>231.7188972222222</v>
       </c>
       <c r="P15" t="n">
-        <v>213.4633145549306</v>
+        <v>217.7084120482866</v>
       </c>
       <c r="Q15" t="n">
-        <v>142.6945727136456</v>
+        <v>145.5323079666805</v>
       </c>
       <c r="R15" t="n">
-        <v>69.40573018603516</v>
+        <v>70.78598651650391</v>
       </c>
       <c r="S15" t="n">
-        <v>20.76386460425675</v>
+        <v>21.17679096477774</v>
       </c>
       <c r="T15" t="n">
-        <v>4.505783133721833</v>
+        <v>4.595388641471252</v>
       </c>
       <c r="U15" t="n">
-        <v>0.07354379434801692</v>
+        <v>0.07500634344077131</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.9371810296151658</v>
+        <v>0.9558185404583529</v>
       </c>
       <c r="H16" t="n">
-        <v>8.332391336033025</v>
+        <v>8.498095750620635</v>
       </c>
       <c r="I16" t="n">
-        <v>28.18358950879063</v>
+        <v>28.7440702894203</v>
       </c>
       <c r="J16" t="n">
-        <v>66.25869879379222</v>
+        <v>67.57637081040555</v>
       </c>
       <c r="K16" t="n">
-        <v>108.8833959861983</v>
+        <v>111.0487358823432</v>
       </c>
       <c r="L16" t="n">
-        <v>139.3332596211493</v>
+        <v>142.104149187781</v>
       </c>
       <c r="M16" t="n">
-        <v>146.9073863059482</v>
+        <v>149.8289008465762</v>
       </c>
       <c r="N16" t="n">
-        <v>143.4142570137463</v>
+        <v>146.2663044685042</v>
       </c>
       <c r="O16" t="n">
-        <v>132.4662786223328</v>
+        <v>135.1006060640589</v>
       </c>
       <c r="P16" t="n">
-        <v>113.3477856181833</v>
+        <v>115.6019078387084</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.47613148895721</v>
+        <v>80.036768874199</v>
       </c>
       <c r="R16" t="n">
-        <v>42.13906702251462</v>
+        <v>42.97707728279102</v>
       </c>
       <c r="S16" t="n">
-        <v>16.33250939792975</v>
+        <v>16.65731038235147</v>
       </c>
       <c r="T16" t="n">
-        <v>4.004318944719344</v>
+        <v>4.08395194559478</v>
       </c>
       <c r="U16" t="n">
-        <v>0.05111896525173638</v>
+        <v>0.05213555675227386</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>2.08928434194701</v>
+        <v>2.130833475302311</v>
       </c>
       <c r="H17" t="n">
-        <v>21.39688326696483</v>
+        <v>21.8223983289398</v>
       </c>
       <c r="I17" t="n">
-        <v>80.5471345929122</v>
+        <v>82.14895755659244</v>
       </c>
       <c r="J17" t="n">
-        <v>177.3253969173253</v>
+        <v>180.8518276744397</v>
       </c>
       <c r="K17" t="n">
-        <v>265.7648031119423</v>
+        <v>271.0500086839866</v>
       </c>
       <c r="L17" t="n">
-        <v>329.7047387918032</v>
+        <v>336.2615036537698</v>
       </c>
       <c r="M17" t="n">
-        <v>366.8600492079033</v>
+        <v>374.1557134701773</v>
       </c>
       <c r="N17" t="n">
         <v>372.7962283444602</v>
       </c>
       <c r="O17" t="n">
-        <v>352.0209071692246</v>
+        <v>359.0214687118426</v>
       </c>
       <c r="P17" t="n">
-        <v>300.4416999774078</v>
+        <v>306.4165172903167</v>
       </c>
       <c r="Q17" t="n">
-        <v>225.6192044814304</v>
+        <v>230.1060434560526</v>
       </c>
       <c r="R17" t="n">
-        <v>131.241007544829</v>
+        <v>133.8509682929589</v>
       </c>
       <c r="S17" t="n">
-        <v>47.60956694211755</v>
+        <v>48.55636781845147</v>
       </c>
       <c r="T17" t="n">
-        <v>9.145842206873043</v>
+        <v>9.327723538135873</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1671427473557608</v>
+        <v>0.1704666780241849</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,19 +32305,19 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.117865674089856</v>
+        <v>1.140096420299723</v>
       </c>
       <c r="H18" t="n">
-        <v>10.79622901028888</v>
+        <v>11.01093121710523</v>
       </c>
       <c r="I18" t="n">
-        <v>38.48791904212884</v>
+        <v>39.25331973400364</v>
       </c>
       <c r="J18" t="n">
-        <v>105.6137916033755</v>
+        <v>107.7141096038436</v>
       </c>
       <c r="K18" t="n">
-        <v>180.5107917673958</v>
+        <v>184.1005697639251</v>
       </c>
       <c r="L18" t="n">
         <v>225.1508671422956</v>
@@ -32330,22 +32332,22 @@
         <v>231.7188972222222</v>
       </c>
       <c r="P18" t="n">
-        <v>213.4633145549306</v>
+        <v>217.7084120482866</v>
       </c>
       <c r="Q18" t="n">
-        <v>142.6945727136456</v>
+        <v>145.5323079666805</v>
       </c>
       <c r="R18" t="n">
-        <v>69.40573018603516</v>
+        <v>70.78598651650391</v>
       </c>
       <c r="S18" t="n">
-        <v>20.76386460425675</v>
+        <v>21.17679096477774</v>
       </c>
       <c r="T18" t="n">
-        <v>4.505783133721833</v>
+        <v>4.595388641471252</v>
       </c>
       <c r="U18" t="n">
-        <v>0.07354379434801692</v>
+        <v>0.07500634344077131</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.9371810296151658</v>
+        <v>0.9558185404583529</v>
       </c>
       <c r="H19" t="n">
-        <v>8.332391336033025</v>
+        <v>8.498095750620635</v>
       </c>
       <c r="I19" t="n">
-        <v>28.18358950879063</v>
+        <v>28.7440702894203</v>
       </c>
       <c r="J19" t="n">
-        <v>66.25869879379222</v>
+        <v>67.57637081040555</v>
       </c>
       <c r="K19" t="n">
-        <v>108.8833959861983</v>
+        <v>111.0487358823432</v>
       </c>
       <c r="L19" t="n">
-        <v>139.3332596211493</v>
+        <v>142.104149187781</v>
       </c>
       <c r="M19" t="n">
-        <v>146.9073863059482</v>
+        <v>149.8289008465762</v>
       </c>
       <c r="N19" t="n">
-        <v>143.4142570137463</v>
+        <v>146.2663044685042</v>
       </c>
       <c r="O19" t="n">
-        <v>132.4662786223328</v>
+        <v>135.1006060640589</v>
       </c>
       <c r="P19" t="n">
-        <v>113.3477856181833</v>
+        <v>115.6019078387084</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.47613148895721</v>
+        <v>80.036768874199</v>
       </c>
       <c r="R19" t="n">
-        <v>42.13906702251462</v>
+        <v>42.97707728279102</v>
       </c>
       <c r="S19" t="n">
-        <v>16.33250939792975</v>
+        <v>16.65731038235147</v>
       </c>
       <c r="T19" t="n">
-        <v>4.004318944719344</v>
+        <v>4.08395194559478</v>
       </c>
       <c r="U19" t="n">
-        <v>0.05111896525173638</v>
+        <v>0.05213555675227386</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>2.08928434194701</v>
+        <v>2.130833475302311</v>
       </c>
       <c r="H20" t="n">
-        <v>21.39688326696483</v>
+        <v>21.8223983289398</v>
       </c>
       <c r="I20" t="n">
-        <v>80.5471345929122</v>
+        <v>82.14895755659244</v>
       </c>
       <c r="J20" t="n">
-        <v>177.3253969173253</v>
+        <v>180.8518276744397</v>
       </c>
       <c r="K20" t="n">
-        <v>265.7648031119423</v>
+        <v>271.0500086839866</v>
       </c>
       <c r="L20" t="n">
-        <v>329.7047387918032</v>
+        <v>336.2615036537698</v>
       </c>
       <c r="M20" t="n">
-        <v>366.8600492079033</v>
+        <v>374.1557134701773</v>
       </c>
       <c r="N20" t="n">
         <v>372.7962283444602</v>
       </c>
       <c r="O20" t="n">
-        <v>352.0209071692246</v>
+        <v>359.0214687118426</v>
       </c>
       <c r="P20" t="n">
-        <v>300.4416999774078</v>
+        <v>306.4165172903167</v>
       </c>
       <c r="Q20" t="n">
-        <v>225.6192044814304</v>
+        <v>230.1060434560526</v>
       </c>
       <c r="R20" t="n">
-        <v>131.241007544829</v>
+        <v>133.8509682929589</v>
       </c>
       <c r="S20" t="n">
-        <v>47.60956694211755</v>
+        <v>48.55636781845147</v>
       </c>
       <c r="T20" t="n">
-        <v>9.145842206873043</v>
+        <v>9.327723538135873</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1671427473557608</v>
+        <v>0.1704666780241849</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,19 +32542,19 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.117865674089856</v>
+        <v>1.140096420299723</v>
       </c>
       <c r="H21" t="n">
-        <v>10.79622901028888</v>
+        <v>11.01093121710523</v>
       </c>
       <c r="I21" t="n">
-        <v>38.48791904212884</v>
+        <v>39.25331973400364</v>
       </c>
       <c r="J21" t="n">
-        <v>105.6137916033755</v>
+        <v>107.7141096038436</v>
       </c>
       <c r="K21" t="n">
-        <v>180.5107917673958</v>
+        <v>184.1005697639251</v>
       </c>
       <c r="L21" t="n">
         <v>225.1508671422956</v>
@@ -32567,22 +32569,22 @@
         <v>231.7188972222222</v>
       </c>
       <c r="P21" t="n">
-        <v>213.4633145549306</v>
+        <v>217.7084120482866</v>
       </c>
       <c r="Q21" t="n">
-        <v>142.6945727136456</v>
+        <v>145.5323079666805</v>
       </c>
       <c r="R21" t="n">
-        <v>69.40573018603516</v>
+        <v>70.78598651650391</v>
       </c>
       <c r="S21" t="n">
-        <v>20.76386460425675</v>
+        <v>21.17679096477774</v>
       </c>
       <c r="T21" t="n">
-        <v>4.505783133721833</v>
+        <v>4.595388641471252</v>
       </c>
       <c r="U21" t="n">
-        <v>0.07354379434801692</v>
+        <v>0.07500634344077131</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.9371810296151658</v>
+        <v>0.9558185404583529</v>
       </c>
       <c r="H22" t="n">
-        <v>8.332391336033025</v>
+        <v>8.498095750620635</v>
       </c>
       <c r="I22" t="n">
-        <v>28.18358950879063</v>
+        <v>28.7440702894203</v>
       </c>
       <c r="J22" t="n">
-        <v>66.25869879379222</v>
+        <v>67.57637081040555</v>
       </c>
       <c r="K22" t="n">
-        <v>108.8833959861983</v>
+        <v>111.0487358823432</v>
       </c>
       <c r="L22" t="n">
-        <v>139.3332596211493</v>
+        <v>142.104149187781</v>
       </c>
       <c r="M22" t="n">
-        <v>146.9073863059482</v>
+        <v>149.8289008465762</v>
       </c>
       <c r="N22" t="n">
-        <v>143.4142570137463</v>
+        <v>146.2663044685042</v>
       </c>
       <c r="O22" t="n">
-        <v>132.4662786223328</v>
+        <v>135.1006060640589</v>
       </c>
       <c r="P22" t="n">
-        <v>113.3477856181833</v>
+        <v>115.6019078387084</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.47613148895721</v>
+        <v>80.036768874199</v>
       </c>
       <c r="R22" t="n">
-        <v>42.13906702251462</v>
+        <v>42.97707728279102</v>
       </c>
       <c r="S22" t="n">
-        <v>16.33250939792975</v>
+        <v>16.65731038235147</v>
       </c>
       <c r="T22" t="n">
-        <v>4.004318944719344</v>
+        <v>4.08395194559478</v>
       </c>
       <c r="U22" t="n">
-        <v>0.05111896525173638</v>
+        <v>0.05213555675227386</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>2.08928434194701</v>
+        <v>2.130833475302311</v>
       </c>
       <c r="H23" t="n">
-        <v>21.39688326696483</v>
+        <v>21.8223983289398</v>
       </c>
       <c r="I23" t="n">
-        <v>80.5471345929122</v>
+        <v>82.14895755659244</v>
       </c>
       <c r="J23" t="n">
-        <v>177.3253969173253</v>
+        <v>180.8518276744397</v>
       </c>
       <c r="K23" t="n">
-        <v>265.7648031119423</v>
+        <v>271.0500086839866</v>
       </c>
       <c r="L23" t="n">
-        <v>329.7047387918032</v>
+        <v>336.2615036537698</v>
       </c>
       <c r="M23" t="n">
-        <v>366.8600492079033</v>
+        <v>374.1557134701773</v>
       </c>
       <c r="N23" t="n">
         <v>372.7962283444602</v>
       </c>
       <c r="O23" t="n">
-        <v>352.0209071692246</v>
+        <v>359.0214687118426</v>
       </c>
       <c r="P23" t="n">
-        <v>300.4416999774078</v>
+        <v>306.4165172903167</v>
       </c>
       <c r="Q23" t="n">
-        <v>225.6192044814304</v>
+        <v>230.1060434560526</v>
       </c>
       <c r="R23" t="n">
-        <v>131.241007544829</v>
+        <v>133.8509682929589</v>
       </c>
       <c r="S23" t="n">
-        <v>47.60956694211755</v>
+        <v>48.55636781845147</v>
       </c>
       <c r="T23" t="n">
-        <v>9.145842206873043</v>
+        <v>9.327723538135873</v>
       </c>
       <c r="U23" t="n">
-        <v>0.1671427473557608</v>
+        <v>0.1704666780241849</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,19 +32779,19 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.117865674089856</v>
+        <v>1.140096420299723</v>
       </c>
       <c r="H24" t="n">
-        <v>10.79622901028888</v>
+        <v>11.01093121710523</v>
       </c>
       <c r="I24" t="n">
-        <v>38.48791904212884</v>
+        <v>39.25331973400364</v>
       </c>
       <c r="J24" t="n">
-        <v>105.6137916033755</v>
+        <v>107.7141096038436</v>
       </c>
       <c r="K24" t="n">
-        <v>180.5107917673958</v>
+        <v>184.1005697639251</v>
       </c>
       <c r="L24" t="n">
         <v>225.1508671422956</v>
@@ -32804,22 +32806,22 @@
         <v>231.7188972222222</v>
       </c>
       <c r="P24" t="n">
-        <v>213.4633145549306</v>
+        <v>217.7084120482866</v>
       </c>
       <c r="Q24" t="n">
-        <v>142.6945727136456</v>
+        <v>145.5323079666805</v>
       </c>
       <c r="R24" t="n">
-        <v>69.40573018603516</v>
+        <v>70.78598651650391</v>
       </c>
       <c r="S24" t="n">
-        <v>20.76386460425675</v>
+        <v>21.17679096477774</v>
       </c>
       <c r="T24" t="n">
-        <v>4.505783133721833</v>
+        <v>4.595388641471252</v>
       </c>
       <c r="U24" t="n">
-        <v>0.07354379434801692</v>
+        <v>0.07500634344077131</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.9371810296151658</v>
+        <v>0.9558185404583529</v>
       </c>
       <c r="H25" t="n">
-        <v>8.332391336033025</v>
+        <v>8.498095750620635</v>
       </c>
       <c r="I25" t="n">
-        <v>28.18358950879063</v>
+        <v>28.7440702894203</v>
       </c>
       <c r="J25" t="n">
-        <v>66.25869879379222</v>
+        <v>67.57637081040555</v>
       </c>
       <c r="K25" t="n">
-        <v>108.8833959861983</v>
+        <v>111.0487358823432</v>
       </c>
       <c r="L25" t="n">
-        <v>139.3332596211493</v>
+        <v>142.104149187781</v>
       </c>
       <c r="M25" t="n">
-        <v>146.9073863059482</v>
+        <v>149.8289008465762</v>
       </c>
       <c r="N25" t="n">
-        <v>143.4142570137463</v>
+        <v>146.2663044685042</v>
       </c>
       <c r="O25" t="n">
-        <v>132.4662786223328</v>
+        <v>135.1006060640589</v>
       </c>
       <c r="P25" t="n">
-        <v>113.3477856181833</v>
+        <v>115.6019078387084</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.47613148895721</v>
+        <v>80.036768874199</v>
       </c>
       <c r="R25" t="n">
-        <v>42.13906702251462</v>
+        <v>42.97707728279102</v>
       </c>
       <c r="S25" t="n">
-        <v>16.33250939792975</v>
+        <v>16.65731038235147</v>
       </c>
       <c r="T25" t="n">
-        <v>4.004318944719344</v>
+        <v>4.08395194559478</v>
       </c>
       <c r="U25" t="n">
-        <v>0.05111896525173638</v>
+        <v>0.05213555675227386</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>2.08928434194701</v>
+        <v>2.130833475302311</v>
       </c>
       <c r="H26" t="n">
-        <v>21.39688326696483</v>
+        <v>21.8223983289398</v>
       </c>
       <c r="I26" t="n">
-        <v>80.5471345929122</v>
+        <v>82.14895755659244</v>
       </c>
       <c r="J26" t="n">
-        <v>177.3253969173253</v>
+        <v>180.8518276744397</v>
       </c>
       <c r="K26" t="n">
-        <v>265.7648031119423</v>
+        <v>271.0500086839866</v>
       </c>
       <c r="L26" t="n">
-        <v>329.7047387918032</v>
+        <v>336.2615036537698</v>
       </c>
       <c r="M26" t="n">
-        <v>366.8600492079033</v>
+        <v>374.1557134701773</v>
       </c>
       <c r="N26" t="n">
         <v>372.7962283444602</v>
       </c>
       <c r="O26" t="n">
-        <v>352.0209071692246</v>
+        <v>359.0214687118426</v>
       </c>
       <c r="P26" t="n">
-        <v>300.4416999774078</v>
+        <v>306.4165172903167</v>
       </c>
       <c r="Q26" t="n">
-        <v>225.6192044814304</v>
+        <v>230.1060434560526</v>
       </c>
       <c r="R26" t="n">
-        <v>131.241007544829</v>
+        <v>133.8509682929589</v>
       </c>
       <c r="S26" t="n">
-        <v>47.60956694211755</v>
+        <v>48.55636781845147</v>
       </c>
       <c r="T26" t="n">
-        <v>9.145842206873043</v>
+        <v>9.327723538135873</v>
       </c>
       <c r="U26" t="n">
-        <v>0.1671427473557608</v>
+        <v>0.1704666780241849</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,19 +33016,19 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.117865674089856</v>
+        <v>1.140096420299723</v>
       </c>
       <c r="H27" t="n">
-        <v>10.79622901028888</v>
+        <v>11.01093121710523</v>
       </c>
       <c r="I27" t="n">
-        <v>38.48791904212884</v>
+        <v>39.25331973400364</v>
       </c>
       <c r="J27" t="n">
-        <v>105.6137916033755</v>
+        <v>107.7141096038436</v>
       </c>
       <c r="K27" t="n">
-        <v>180.5107917673958</v>
+        <v>184.1005697639251</v>
       </c>
       <c r="L27" t="n">
         <v>225.1508671422956</v>
@@ -33041,22 +33043,22 @@
         <v>231.7188972222222</v>
       </c>
       <c r="P27" t="n">
-        <v>213.4633145549306</v>
+        <v>217.7084120482866</v>
       </c>
       <c r="Q27" t="n">
-        <v>142.6945727136456</v>
+        <v>145.5323079666805</v>
       </c>
       <c r="R27" t="n">
-        <v>69.40573018603516</v>
+        <v>70.78598651650391</v>
       </c>
       <c r="S27" t="n">
-        <v>20.76386460425675</v>
+        <v>21.17679096477774</v>
       </c>
       <c r="T27" t="n">
-        <v>4.505783133721833</v>
+        <v>4.595388641471252</v>
       </c>
       <c r="U27" t="n">
-        <v>0.07354379434801692</v>
+        <v>0.07500634344077131</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.9371810296151658</v>
+        <v>0.9558185404583529</v>
       </c>
       <c r="H28" t="n">
-        <v>8.332391336033025</v>
+        <v>8.498095750620635</v>
       </c>
       <c r="I28" t="n">
-        <v>28.18358950879063</v>
+        <v>28.7440702894203</v>
       </c>
       <c r="J28" t="n">
-        <v>66.25869879379222</v>
+        <v>67.57637081040555</v>
       </c>
       <c r="K28" t="n">
-        <v>108.8833959861983</v>
+        <v>111.0487358823432</v>
       </c>
       <c r="L28" t="n">
-        <v>139.3332596211493</v>
+        <v>142.104149187781</v>
       </c>
       <c r="M28" t="n">
-        <v>146.9073863059482</v>
+        <v>149.8289008465762</v>
       </c>
       <c r="N28" t="n">
-        <v>143.4142570137463</v>
+        <v>146.2663044685042</v>
       </c>
       <c r="O28" t="n">
-        <v>132.4662786223328</v>
+        <v>135.1006060640589</v>
       </c>
       <c r="P28" t="n">
-        <v>113.3477856181833</v>
+        <v>115.6019078387084</v>
       </c>
       <c r="Q28" t="n">
-        <v>78.47613148895721</v>
+        <v>80.036768874199</v>
       </c>
       <c r="R28" t="n">
-        <v>42.13906702251462</v>
+        <v>42.97707728279102</v>
       </c>
       <c r="S28" t="n">
-        <v>16.33250939792975</v>
+        <v>16.65731038235147</v>
       </c>
       <c r="T28" t="n">
-        <v>4.004318944719344</v>
+        <v>4.08395194559478</v>
       </c>
       <c r="U28" t="n">
-        <v>0.05111896525173638</v>
+        <v>0.05213555675227386</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>2.08928434194701</v>
+        <v>2.130833475302311</v>
       </c>
       <c r="H29" t="n">
-        <v>21.39688326696483</v>
+        <v>21.8223983289398</v>
       </c>
       <c r="I29" t="n">
-        <v>80.5471345929122</v>
+        <v>82.14895755659244</v>
       </c>
       <c r="J29" t="n">
-        <v>177.3253969173253</v>
+        <v>180.8518276744397</v>
       </c>
       <c r="K29" t="n">
-        <v>265.7648031119423</v>
+        <v>271.0500086839866</v>
       </c>
       <c r="L29" t="n">
-        <v>329.7047387918032</v>
+        <v>336.2615036537698</v>
       </c>
       <c r="M29" t="n">
-        <v>366.8600492079033</v>
+        <v>374.1557134701773</v>
       </c>
       <c r="N29" t="n">
         <v>372.7962283444602</v>
       </c>
       <c r="O29" t="n">
-        <v>352.0209071692246</v>
+        <v>359.0214687118426</v>
       </c>
       <c r="P29" t="n">
-        <v>300.4416999774078</v>
+        <v>306.4165172903167</v>
       </c>
       <c r="Q29" t="n">
-        <v>225.6192044814304</v>
+        <v>230.1060434560526</v>
       </c>
       <c r="R29" t="n">
-        <v>131.241007544829</v>
+        <v>133.8509682929589</v>
       </c>
       <c r="S29" t="n">
-        <v>47.60956694211755</v>
+        <v>48.55636781845147</v>
       </c>
       <c r="T29" t="n">
-        <v>9.145842206873043</v>
+        <v>9.327723538135873</v>
       </c>
       <c r="U29" t="n">
-        <v>0.1671427473557608</v>
+        <v>0.1704666780241849</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,19 +33253,19 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.117865674089856</v>
+        <v>1.140096420299723</v>
       </c>
       <c r="H30" t="n">
-        <v>10.79622901028888</v>
+        <v>11.01093121710523</v>
       </c>
       <c r="I30" t="n">
-        <v>38.48791904212884</v>
+        <v>39.25331973400364</v>
       </c>
       <c r="J30" t="n">
-        <v>105.6137916033755</v>
+        <v>107.7141096038436</v>
       </c>
       <c r="K30" t="n">
-        <v>180.5107917673958</v>
+        <v>184.1005697639251</v>
       </c>
       <c r="L30" t="n">
         <v>225.1508671422956</v>
@@ -33278,22 +33280,22 @@
         <v>231.7188972222222</v>
       </c>
       <c r="P30" t="n">
-        <v>213.4633145549306</v>
+        <v>217.7084120482866</v>
       </c>
       <c r="Q30" t="n">
-        <v>142.6945727136456</v>
+        <v>145.5323079666805</v>
       </c>
       <c r="R30" t="n">
-        <v>69.40573018603516</v>
+        <v>70.78598651650391</v>
       </c>
       <c r="S30" t="n">
-        <v>20.76386460425675</v>
+        <v>21.17679096477774</v>
       </c>
       <c r="T30" t="n">
-        <v>4.505783133721833</v>
+        <v>4.595388641471252</v>
       </c>
       <c r="U30" t="n">
-        <v>0.07354379434801692</v>
+        <v>0.07500634344077131</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.9371810296151658</v>
+        <v>0.9558185404583529</v>
       </c>
       <c r="H31" t="n">
-        <v>8.332391336033025</v>
+        <v>8.498095750620635</v>
       </c>
       <c r="I31" t="n">
-        <v>28.18358950879063</v>
+        <v>28.7440702894203</v>
       </c>
       <c r="J31" t="n">
-        <v>66.25869879379222</v>
+        <v>67.57637081040555</v>
       </c>
       <c r="K31" t="n">
-        <v>108.8833959861983</v>
+        <v>111.0487358823432</v>
       </c>
       <c r="L31" t="n">
-        <v>139.3332596211493</v>
+        <v>142.104149187781</v>
       </c>
       <c r="M31" t="n">
-        <v>146.9073863059482</v>
+        <v>149.8289008465762</v>
       </c>
       <c r="N31" t="n">
-        <v>143.4142570137463</v>
+        <v>146.2663044685042</v>
       </c>
       <c r="O31" t="n">
-        <v>132.4662786223328</v>
+        <v>135.1006060640589</v>
       </c>
       <c r="P31" t="n">
-        <v>113.3477856181833</v>
+        <v>115.6019078387084</v>
       </c>
       <c r="Q31" t="n">
-        <v>78.47613148895721</v>
+        <v>80.036768874199</v>
       </c>
       <c r="R31" t="n">
-        <v>42.13906702251462</v>
+        <v>42.97707728279102</v>
       </c>
       <c r="S31" t="n">
-        <v>16.33250939792975</v>
+        <v>16.65731038235147</v>
       </c>
       <c r="T31" t="n">
-        <v>4.004318944719344</v>
+        <v>4.08395194559478</v>
       </c>
       <c r="U31" t="n">
-        <v>0.05111896525173638</v>
+        <v>0.05213555675227386</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>2.08928434194701</v>
+        <v>2.130833475302311</v>
       </c>
       <c r="H32" t="n">
-        <v>21.39688326696482</v>
+        <v>21.8223983289398</v>
       </c>
       <c r="I32" t="n">
-        <v>80.5471345929122</v>
+        <v>82.14895755659244</v>
       </c>
       <c r="J32" t="n">
-        <v>177.3253969173252</v>
+        <v>180.8518276744397</v>
       </c>
       <c r="K32" t="n">
-        <v>265.7648031119422</v>
+        <v>271.0500086839866</v>
       </c>
       <c r="L32" t="n">
-        <v>329.7047387918032</v>
+        <v>336.2615036537698</v>
       </c>
       <c r="M32" t="n">
-        <v>366.8600492079033</v>
+        <v>374.1557134701773</v>
       </c>
       <c r="N32" t="n">
         <v>372.7962283444602</v>
       </c>
       <c r="O32" t="n">
-        <v>352.0209071692246</v>
+        <v>359.0214687118426</v>
       </c>
       <c r="P32" t="n">
-        <v>300.4416999774078</v>
+        <v>306.4165172903167</v>
       </c>
       <c r="Q32" t="n">
-        <v>225.6192044814304</v>
+        <v>230.1060434560526</v>
       </c>
       <c r="R32" t="n">
-        <v>131.241007544829</v>
+        <v>133.8509682929589</v>
       </c>
       <c r="S32" t="n">
-        <v>47.60956694211755</v>
+        <v>48.55636781845147</v>
       </c>
       <c r="T32" t="n">
-        <v>9.145842206873043</v>
+        <v>9.327723538135873</v>
       </c>
       <c r="U32" t="n">
-        <v>0.1671427473557608</v>
+        <v>0.1704666780241849</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,19 +33490,19 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.117865674089856</v>
+        <v>1.140096420299723</v>
       </c>
       <c r="H33" t="n">
-        <v>10.79622901028888</v>
+        <v>11.01093121710523</v>
       </c>
       <c r="I33" t="n">
-        <v>38.48791904212884</v>
+        <v>39.25331973400364</v>
       </c>
       <c r="J33" t="n">
-        <v>105.6137916033754</v>
+        <v>107.7141096038436</v>
       </c>
       <c r="K33" t="n">
-        <v>180.5107917673958</v>
+        <v>184.1005697639251</v>
       </c>
       <c r="L33" t="n">
         <v>225.1508671422956</v>
@@ -33515,22 +33517,22 @@
         <v>231.7188972222222</v>
       </c>
       <c r="P33" t="n">
-        <v>213.4633145549306</v>
+        <v>217.7084120482866</v>
       </c>
       <c r="Q33" t="n">
-        <v>142.6945727136456</v>
+        <v>145.5323079666805</v>
       </c>
       <c r="R33" t="n">
-        <v>69.40573018603516</v>
+        <v>70.78598651650391</v>
       </c>
       <c r="S33" t="n">
-        <v>20.76386460425675</v>
+        <v>21.17679096477774</v>
       </c>
       <c r="T33" t="n">
-        <v>4.505783133721833</v>
+        <v>4.595388641471252</v>
       </c>
       <c r="U33" t="n">
-        <v>0.0735437943480169</v>
+        <v>0.07500634344077131</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.9371810296151658</v>
+        <v>0.9558185404583529</v>
       </c>
       <c r="H34" t="n">
-        <v>8.332391336033027</v>
+        <v>8.498095750620635</v>
       </c>
       <c r="I34" t="n">
-        <v>28.18358950879063</v>
+        <v>28.7440702894203</v>
       </c>
       <c r="J34" t="n">
-        <v>66.25869879379222</v>
+        <v>67.57637081040555</v>
       </c>
       <c r="K34" t="n">
-        <v>108.8833959861983</v>
+        <v>111.0487358823432</v>
       </c>
       <c r="L34" t="n">
-        <v>139.3332596211493</v>
+        <v>142.104149187781</v>
       </c>
       <c r="M34" t="n">
-        <v>146.9073863059482</v>
+        <v>149.8289008465762</v>
       </c>
       <c r="N34" t="n">
-        <v>143.4142570137463</v>
+        <v>146.2663044685042</v>
       </c>
       <c r="O34" t="n">
-        <v>132.4662786223328</v>
+        <v>135.1006060640589</v>
       </c>
       <c r="P34" t="n">
-        <v>113.3477856181833</v>
+        <v>115.6019078387084</v>
       </c>
       <c r="Q34" t="n">
-        <v>78.47613148895721</v>
+        <v>80.036768874199</v>
       </c>
       <c r="R34" t="n">
-        <v>42.13906702251462</v>
+        <v>42.97707728279102</v>
       </c>
       <c r="S34" t="n">
-        <v>16.33250939792974</v>
+        <v>16.65731038235147</v>
       </c>
       <c r="T34" t="n">
-        <v>4.004318944719343</v>
+        <v>4.08395194559478</v>
       </c>
       <c r="U34" t="n">
-        <v>0.05111896525173638</v>
+        <v>0.05213555675227386</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>2.08928434194701</v>
+        <v>2.130833475302311</v>
       </c>
       <c r="H35" t="n">
-        <v>21.39688326696483</v>
+        <v>21.8223983289398</v>
       </c>
       <c r="I35" t="n">
-        <v>80.5471345929122</v>
+        <v>82.14895755659244</v>
       </c>
       <c r="J35" t="n">
-        <v>177.3253969173253</v>
+        <v>180.8518276744397</v>
       </c>
       <c r="K35" t="n">
-        <v>265.7648031119423</v>
+        <v>271.0500086839866</v>
       </c>
       <c r="L35" t="n">
-        <v>329.7047387918032</v>
+        <v>336.2615036537698</v>
       </c>
       <c r="M35" t="n">
-        <v>366.8600492079033</v>
+        <v>374.1557134701773</v>
       </c>
       <c r="N35" t="n">
         <v>372.7962283444602</v>
       </c>
       <c r="O35" t="n">
-        <v>352.0209071692246</v>
+        <v>359.0214687118426</v>
       </c>
       <c r="P35" t="n">
-        <v>300.4416999774078</v>
+        <v>306.4165172903167</v>
       </c>
       <c r="Q35" t="n">
-        <v>225.6192044814304</v>
+        <v>230.1060434560526</v>
       </c>
       <c r="R35" t="n">
-        <v>131.241007544829</v>
+        <v>133.8509682929589</v>
       </c>
       <c r="S35" t="n">
-        <v>47.60956694211755</v>
+        <v>48.55636781845147</v>
       </c>
       <c r="T35" t="n">
-        <v>9.145842206873043</v>
+        <v>9.327723538135873</v>
       </c>
       <c r="U35" t="n">
-        <v>0.1671427473557608</v>
+        <v>0.1704666780241849</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,19 +33727,19 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.117865674089856</v>
+        <v>1.140096420299723</v>
       </c>
       <c r="H36" t="n">
-        <v>10.79622901028888</v>
+        <v>11.01093121710523</v>
       </c>
       <c r="I36" t="n">
-        <v>38.48791904212884</v>
+        <v>39.25331973400364</v>
       </c>
       <c r="J36" t="n">
-        <v>105.6137916033755</v>
+        <v>107.7141096038436</v>
       </c>
       <c r="K36" t="n">
-        <v>180.5107917673958</v>
+        <v>184.1005697639251</v>
       </c>
       <c r="L36" t="n">
         <v>225.1508671422956</v>
@@ -33752,22 +33754,22 @@
         <v>231.7188972222222</v>
       </c>
       <c r="P36" t="n">
-        <v>213.4633145549306</v>
+        <v>217.7084120482866</v>
       </c>
       <c r="Q36" t="n">
-        <v>142.6945727136456</v>
+        <v>145.5323079666805</v>
       </c>
       <c r="R36" t="n">
-        <v>69.40573018603516</v>
+        <v>70.78598651650391</v>
       </c>
       <c r="S36" t="n">
-        <v>20.76386460425675</v>
+        <v>21.17679096477774</v>
       </c>
       <c r="T36" t="n">
-        <v>4.505783133721833</v>
+        <v>4.595388641471252</v>
       </c>
       <c r="U36" t="n">
-        <v>0.07354379434801692</v>
+        <v>0.07500634344077131</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.9371810296151658</v>
+        <v>0.9558185404583529</v>
       </c>
       <c r="H37" t="n">
-        <v>8.332391336033025</v>
+        <v>8.498095750620635</v>
       </c>
       <c r="I37" t="n">
-        <v>28.18358950879063</v>
+        <v>28.7440702894203</v>
       </c>
       <c r="J37" t="n">
-        <v>66.25869879379222</v>
+        <v>67.57637081040555</v>
       </c>
       <c r="K37" t="n">
-        <v>108.8833959861983</v>
+        <v>111.0487358823432</v>
       </c>
       <c r="L37" t="n">
-        <v>139.3332596211493</v>
+        <v>142.104149187781</v>
       </c>
       <c r="M37" t="n">
-        <v>146.9073863059482</v>
+        <v>149.8289008465762</v>
       </c>
       <c r="N37" t="n">
-        <v>143.4142570137463</v>
+        <v>146.2663044685042</v>
       </c>
       <c r="O37" t="n">
-        <v>132.4662786223328</v>
+        <v>135.1006060640589</v>
       </c>
       <c r="P37" t="n">
-        <v>113.3477856181833</v>
+        <v>115.6019078387084</v>
       </c>
       <c r="Q37" t="n">
-        <v>78.47613148895721</v>
+        <v>80.036768874199</v>
       </c>
       <c r="R37" t="n">
-        <v>42.13906702251462</v>
+        <v>42.97707728279102</v>
       </c>
       <c r="S37" t="n">
-        <v>16.33250939792975</v>
+        <v>16.65731038235147</v>
       </c>
       <c r="T37" t="n">
-        <v>4.004318944719344</v>
+        <v>4.08395194559478</v>
       </c>
       <c r="U37" t="n">
-        <v>0.05111896525173638</v>
+        <v>0.05213555675227386</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>2.08928434194701</v>
+        <v>2.130833475302311</v>
       </c>
       <c r="H38" t="n">
-        <v>21.39688326696483</v>
+        <v>21.8223983289398</v>
       </c>
       <c r="I38" t="n">
-        <v>80.5471345929122</v>
+        <v>82.14895755659242</v>
       </c>
       <c r="J38" t="n">
-        <v>177.3253969173253</v>
+        <v>180.8518276744397</v>
       </c>
       <c r="K38" t="n">
-        <v>265.7648031119423</v>
+        <v>271.0500086839866</v>
       </c>
       <c r="L38" t="n">
-        <v>329.7047387918032</v>
+        <v>336.2615036537697</v>
       </c>
       <c r="M38" t="n">
-        <v>366.8600492079033</v>
+        <v>374.1557134701772</v>
       </c>
       <c r="N38" t="n">
         <v>372.7962283444602</v>
       </c>
       <c r="O38" t="n">
-        <v>352.0209071692246</v>
+        <v>359.0214687118425</v>
       </c>
       <c r="P38" t="n">
-        <v>300.4416999774078</v>
+        <v>306.4165172903167</v>
       </c>
       <c r="Q38" t="n">
-        <v>225.6192044814304</v>
+        <v>230.1060434560526</v>
       </c>
       <c r="R38" t="n">
-        <v>131.241007544829</v>
+        <v>133.8509682929589</v>
       </c>
       <c r="S38" t="n">
-        <v>47.60956694211755</v>
+        <v>48.55636781845146</v>
       </c>
       <c r="T38" t="n">
-        <v>9.145842206873043</v>
+        <v>9.327723538135873</v>
       </c>
       <c r="U38" t="n">
-        <v>0.1671427473557608</v>
+        <v>0.1704666780241849</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,19 +33964,19 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.117865674089856</v>
+        <v>1.140096420299723</v>
       </c>
       <c r="H39" t="n">
-        <v>10.79622901028888</v>
+        <v>11.01093121710522</v>
       </c>
       <c r="I39" t="n">
-        <v>38.48791904212884</v>
+        <v>39.25331973400363</v>
       </c>
       <c r="J39" t="n">
-        <v>105.6137916033755</v>
+        <v>107.7141096038436</v>
       </c>
       <c r="K39" t="n">
-        <v>180.5107917673958</v>
+        <v>184.1005697639251</v>
       </c>
       <c r="L39" t="n">
         <v>225.1508671422956</v>
@@ -33989,22 +33991,22 @@
         <v>231.7188972222222</v>
       </c>
       <c r="P39" t="n">
-        <v>213.4633145549306</v>
+        <v>217.7084120482866</v>
       </c>
       <c r="Q39" t="n">
-        <v>142.6945727136456</v>
+        <v>145.5323079666805</v>
       </c>
       <c r="R39" t="n">
-        <v>69.40573018603516</v>
+        <v>70.7859865165039</v>
       </c>
       <c r="S39" t="n">
-        <v>20.76386460425675</v>
+        <v>21.17679096477774</v>
       </c>
       <c r="T39" t="n">
-        <v>4.505783133721833</v>
+        <v>4.595388641471251</v>
       </c>
       <c r="U39" t="n">
-        <v>0.07354379434801692</v>
+        <v>0.0750063434407713</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.9371810296151658</v>
+        <v>0.9558185404583529</v>
       </c>
       <c r="H40" t="n">
-        <v>8.332391336033025</v>
+        <v>8.498095750620635</v>
       </c>
       <c r="I40" t="n">
-        <v>28.18358950879063</v>
+        <v>28.74407028942029</v>
       </c>
       <c r="J40" t="n">
-        <v>66.25869879379222</v>
+        <v>67.57637081040554</v>
       </c>
       <c r="K40" t="n">
-        <v>108.8833959861983</v>
+        <v>111.0487358823432</v>
       </c>
       <c r="L40" t="n">
-        <v>139.3332596211493</v>
+        <v>142.104149187781</v>
       </c>
       <c r="M40" t="n">
-        <v>146.9073863059482</v>
+        <v>149.8289008465761</v>
       </c>
       <c r="N40" t="n">
-        <v>143.4142570137463</v>
+        <v>146.2663044685042</v>
       </c>
       <c r="O40" t="n">
-        <v>132.4662786223328</v>
+        <v>135.1006060640589</v>
       </c>
       <c r="P40" t="n">
-        <v>113.3477856181833</v>
+        <v>115.6019078387084</v>
       </c>
       <c r="Q40" t="n">
-        <v>78.47613148895721</v>
+        <v>80.036768874199</v>
       </c>
       <c r="R40" t="n">
-        <v>42.13906702251462</v>
+        <v>42.97707728279102</v>
       </c>
       <c r="S40" t="n">
-        <v>16.33250939792975</v>
+        <v>16.65731038235147</v>
       </c>
       <c r="T40" t="n">
-        <v>4.004318944719344</v>
+        <v>4.083951945594779</v>
       </c>
       <c r="U40" t="n">
-        <v>0.05111896525173638</v>
+        <v>0.05213555675227385</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>2.08928434194701</v>
+        <v>2.130833475302311</v>
       </c>
       <c r="H41" t="n">
-        <v>21.39688326696483</v>
+        <v>21.8223983289398</v>
       </c>
       <c r="I41" t="n">
-        <v>80.5471345929122</v>
+        <v>82.14895755659244</v>
       </c>
       <c r="J41" t="n">
-        <v>177.3253969173253</v>
+        <v>180.8518276744397</v>
       </c>
       <c r="K41" t="n">
-        <v>265.7648031119423</v>
+        <v>271.0500086839866</v>
       </c>
       <c r="L41" t="n">
-        <v>329.7047387918032</v>
+        <v>336.2615036537698</v>
       </c>
       <c r="M41" t="n">
-        <v>366.8600492079033</v>
+        <v>374.1557134701773</v>
       </c>
       <c r="N41" t="n">
         <v>372.7962283444602</v>
       </c>
       <c r="O41" t="n">
-        <v>352.0209071692246</v>
+        <v>359.0214687118426</v>
       </c>
       <c r="P41" t="n">
-        <v>300.4416999774078</v>
+        <v>306.4165172903167</v>
       </c>
       <c r="Q41" t="n">
-        <v>225.6192044814304</v>
+        <v>230.1060434560526</v>
       </c>
       <c r="R41" t="n">
-        <v>131.241007544829</v>
+        <v>133.8509682929589</v>
       </c>
       <c r="S41" t="n">
-        <v>47.60956694211755</v>
+        <v>48.55636781845147</v>
       </c>
       <c r="T41" t="n">
-        <v>9.145842206873043</v>
+        <v>9.327723538135873</v>
       </c>
       <c r="U41" t="n">
-        <v>0.1671427473557608</v>
+        <v>0.1704666780241849</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,19 +34201,19 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.117865674089856</v>
+        <v>1.140096420299723</v>
       </c>
       <c r="H42" t="n">
-        <v>10.79622901028888</v>
+        <v>11.01093121710523</v>
       </c>
       <c r="I42" t="n">
-        <v>38.48791904212884</v>
+        <v>39.25331973400364</v>
       </c>
       <c r="J42" t="n">
-        <v>105.6137916033755</v>
+        <v>107.7141096038436</v>
       </c>
       <c r="K42" t="n">
-        <v>180.5107917673958</v>
+        <v>184.1005697639251</v>
       </c>
       <c r="L42" t="n">
         <v>225.1508671422956</v>
@@ -34226,22 +34228,22 @@
         <v>231.7188972222222</v>
       </c>
       <c r="P42" t="n">
-        <v>213.4633145549306</v>
+        <v>217.7084120482866</v>
       </c>
       <c r="Q42" t="n">
-        <v>142.6945727136456</v>
+        <v>145.5323079666805</v>
       </c>
       <c r="R42" t="n">
-        <v>69.40573018603516</v>
+        <v>70.78598651650391</v>
       </c>
       <c r="S42" t="n">
-        <v>20.76386460425675</v>
+        <v>21.17679096477774</v>
       </c>
       <c r="T42" t="n">
-        <v>4.505783133721833</v>
+        <v>4.595388641471252</v>
       </c>
       <c r="U42" t="n">
-        <v>0.07354379434801692</v>
+        <v>0.07500634344077131</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.9371810296151658</v>
+        <v>0.9558185404583529</v>
       </c>
       <c r="H43" t="n">
-        <v>8.332391336033025</v>
+        <v>8.498095750620635</v>
       </c>
       <c r="I43" t="n">
-        <v>28.18358950879063</v>
+        <v>28.7440702894203</v>
       </c>
       <c r="J43" t="n">
-        <v>66.25869879379222</v>
+        <v>67.57637081040555</v>
       </c>
       <c r="K43" t="n">
-        <v>108.8833959861983</v>
+        <v>111.0487358823432</v>
       </c>
       <c r="L43" t="n">
-        <v>139.3332596211493</v>
+        <v>142.104149187781</v>
       </c>
       <c r="M43" t="n">
-        <v>146.9073863059482</v>
+        <v>149.8289008465762</v>
       </c>
       <c r="N43" t="n">
-        <v>143.4142570137463</v>
+        <v>146.2663044685042</v>
       </c>
       <c r="O43" t="n">
-        <v>132.4662786223328</v>
+        <v>135.1006060640589</v>
       </c>
       <c r="P43" t="n">
-        <v>113.3477856181833</v>
+        <v>115.6019078387084</v>
       </c>
       <c r="Q43" t="n">
-        <v>78.47613148895721</v>
+        <v>80.036768874199</v>
       </c>
       <c r="R43" t="n">
-        <v>42.13906702251462</v>
+        <v>42.97707728279102</v>
       </c>
       <c r="S43" t="n">
-        <v>16.33250939792975</v>
+        <v>16.65731038235147</v>
       </c>
       <c r="T43" t="n">
-        <v>4.004318944719344</v>
+        <v>4.08395194559478</v>
       </c>
       <c r="U43" t="n">
-        <v>0.05111896525173638</v>
+        <v>0.05213555675227386</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>2.08928434194701</v>
+        <v>2.130833475302311</v>
       </c>
       <c r="H44" t="n">
-        <v>21.39688326696483</v>
+        <v>21.8223983289398</v>
       </c>
       <c r="I44" t="n">
-        <v>80.5471345929122</v>
+        <v>82.14895755659244</v>
       </c>
       <c r="J44" t="n">
-        <v>177.3253969173253</v>
+        <v>180.8518276744397</v>
       </c>
       <c r="K44" t="n">
-        <v>265.7648031119423</v>
+        <v>271.0500086839866</v>
       </c>
       <c r="L44" t="n">
-        <v>329.7047387918032</v>
+        <v>336.2615036537698</v>
       </c>
       <c r="M44" t="n">
-        <v>366.8600492079033</v>
+        <v>374.1557134701773</v>
       </c>
       <c r="N44" t="n">
         <v>372.7962283444602</v>
       </c>
       <c r="O44" t="n">
-        <v>352.0209071692246</v>
+        <v>359.0214687118426</v>
       </c>
       <c r="P44" t="n">
-        <v>300.4416999774078</v>
+        <v>306.4165172903167</v>
       </c>
       <c r="Q44" t="n">
-        <v>225.6192044814304</v>
+        <v>230.1060434560526</v>
       </c>
       <c r="R44" t="n">
-        <v>131.241007544829</v>
+        <v>133.8509682929589</v>
       </c>
       <c r="S44" t="n">
-        <v>47.60956694211755</v>
+        <v>48.55636781845147</v>
       </c>
       <c r="T44" t="n">
-        <v>9.145842206873043</v>
+        <v>9.327723538135873</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1671427473557608</v>
+        <v>0.1704666780241849</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,19 +34438,19 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.117865674089856</v>
+        <v>1.140096420299723</v>
       </c>
       <c r="H45" t="n">
-        <v>10.79622901028888</v>
+        <v>11.01093121710523</v>
       </c>
       <c r="I45" t="n">
-        <v>38.48791904212884</v>
+        <v>39.25331973400364</v>
       </c>
       <c r="J45" t="n">
-        <v>105.6137916033755</v>
+        <v>107.7141096038436</v>
       </c>
       <c r="K45" t="n">
-        <v>180.5107917673958</v>
+        <v>184.1005697639251</v>
       </c>
       <c r="L45" t="n">
         <v>225.1508671422956</v>
@@ -34463,22 +34465,22 @@
         <v>231.7188972222222</v>
       </c>
       <c r="P45" t="n">
-        <v>213.4633145549306</v>
+        <v>217.7084120482866</v>
       </c>
       <c r="Q45" t="n">
-        <v>142.6945727136456</v>
+        <v>145.5323079666805</v>
       </c>
       <c r="R45" t="n">
-        <v>69.40573018603516</v>
+        <v>70.78598651650391</v>
       </c>
       <c r="S45" t="n">
-        <v>20.76386460425675</v>
+        <v>21.17679096477774</v>
       </c>
       <c r="T45" t="n">
-        <v>4.505783133721833</v>
+        <v>4.595388641471252</v>
       </c>
       <c r="U45" t="n">
-        <v>0.07354379434801692</v>
+        <v>0.07500634344077131</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.9371810296151658</v>
+        <v>0.9558185404583529</v>
       </c>
       <c r="H46" t="n">
-        <v>8.332391336033025</v>
+        <v>8.498095750620635</v>
       </c>
       <c r="I46" t="n">
-        <v>28.18358950879063</v>
+        <v>28.7440702894203</v>
       </c>
       <c r="J46" t="n">
-        <v>66.25869879379222</v>
+        <v>67.57637081040555</v>
       </c>
       <c r="K46" t="n">
-        <v>108.8833959861983</v>
+        <v>111.0487358823432</v>
       </c>
       <c r="L46" t="n">
-        <v>139.3332596211493</v>
+        <v>142.104149187781</v>
       </c>
       <c r="M46" t="n">
-        <v>146.9073863059482</v>
+        <v>149.8289008465762</v>
       </c>
       <c r="N46" t="n">
-        <v>143.4142570137463</v>
+        <v>146.2663044685042</v>
       </c>
       <c r="O46" t="n">
-        <v>132.4662786223328</v>
+        <v>135.1006060640589</v>
       </c>
       <c r="P46" t="n">
-        <v>113.3477856181833</v>
+        <v>115.6019078387084</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.47613148895721</v>
+        <v>80.036768874199</v>
       </c>
       <c r="R46" t="n">
-        <v>42.13906702251462</v>
+        <v>42.97707728279102</v>
       </c>
       <c r="S46" t="n">
-        <v>16.33250939792975</v>
+        <v>16.65731038235147</v>
       </c>
       <c r="T46" t="n">
-        <v>4.004318944719344</v>
+        <v>4.08395194559478</v>
       </c>
       <c r="U46" t="n">
-        <v>0.05111896525173638</v>
+        <v>0.05213555675227386</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/0/Output_5_18.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/0/Output_5_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>477683.5507165081</v>
+        <v>327370.3089815589</v>
       </c>
     </row>
     <row r="7">
@@ -24226,31 +24226,31 @@
         <v>350.9248719771719</v>
       </c>
       <c r="I23" t="n">
-        <v>259.61647457086</v>
+        <v>259.6164745708601</v>
       </c>
       <c r="J23" t="n">
         <v>113.3477671814256</v>
       </c>
       <c r="K23" t="n">
-        <v>86.59599926410681</v>
+        <v>86.59599926410687</v>
       </c>
       <c r="L23" t="n">
-        <v>46.85892067245942</v>
+        <v>46.85892067245953</v>
       </c>
       <c r="M23" t="n">
-        <v>0.1569155241409135</v>
+        <v>0.1569155241409703</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>14.88812484839832</v>
+        <v>14.88812484839838</v>
       </c>
       <c r="P23" t="n">
-        <v>69.33710081199627</v>
+        <v>69.33710081199632</v>
       </c>
       <c r="Q23" t="n">
-        <v>131.1407025899278</v>
+        <v>131.1407025899279</v>
       </c>
       <c r="R23" t="n">
         <v>216.4755306550058</v>
@@ -24308,10 +24308,10 @@
         <v>122.4705477659964</v>
       </c>
       <c r="J24" t="n">
-        <v>98.39703372948976</v>
+        <v>98.39703372948978</v>
       </c>
       <c r="K24" t="n">
-        <v>39.89176856940827</v>
+        <v>39.8917685694083</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -24390,19 +24390,19 @@
         <v>138.7911890286131</v>
       </c>
       <c r="K25" t="n">
-        <v>98.5978086447768</v>
+        <v>98.59780864477682</v>
       </c>
       <c r="L25" t="n">
         <v>77.08344976923124</v>
       </c>
       <c r="M25" t="n">
-        <v>75.92549806828202</v>
+        <v>75.92549806828205</v>
       </c>
       <c r="N25" t="n">
-        <v>61.22270528749968</v>
+        <v>61.22270528749971</v>
       </c>
       <c r="O25" t="n">
-        <v>89.89126892018564</v>
+        <v>89.89126892018567</v>
       </c>
       <c r="P25" t="n">
         <v>108.2060987411565</v>
@@ -25411,31 +25411,31 @@
         <v>350.9248719771719</v>
       </c>
       <c r="I38" t="n">
-        <v>259.6164745708601</v>
+        <v>259.61647457086</v>
       </c>
       <c r="J38" t="n">
         <v>113.3477671814256</v>
       </c>
       <c r="K38" t="n">
-        <v>86.59599926410687</v>
+        <v>86.59599926410681</v>
       </c>
       <c r="L38" t="n">
-        <v>46.85892067245953</v>
+        <v>46.85892067245942</v>
       </c>
       <c r="M38" t="n">
-        <v>0.1569155241409703</v>
+        <v>0.1569155241409135</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>14.88812484839838</v>
+        <v>14.88812484839832</v>
       </c>
       <c r="P38" t="n">
-        <v>69.33710081199632</v>
+        <v>69.33710081199627</v>
       </c>
       <c r="Q38" t="n">
-        <v>131.1407025899279</v>
+        <v>131.1407025899278</v>
       </c>
       <c r="R38" t="n">
         <v>216.4755306550058</v>
@@ -25493,10 +25493,10 @@
         <v>122.4705477659964</v>
       </c>
       <c r="J39" t="n">
-        <v>98.39703372948978</v>
+        <v>98.39703372948976</v>
       </c>
       <c r="K39" t="n">
-        <v>39.8917685694083</v>
+        <v>39.89176856940827</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -25575,19 +25575,19 @@
         <v>138.7911890286131</v>
       </c>
       <c r="K40" t="n">
-        <v>98.59780864477682</v>
+        <v>98.5978086447768</v>
       </c>
       <c r="L40" t="n">
         <v>77.08344976923124</v>
       </c>
       <c r="M40" t="n">
-        <v>75.92549806828205</v>
+        <v>75.92549806828202</v>
       </c>
       <c r="N40" t="n">
-        <v>61.22270528749971</v>
+        <v>61.22270528749968</v>
       </c>
       <c r="O40" t="n">
-        <v>89.89126892018567</v>
+        <v>89.89126892018564</v>
       </c>
       <c r="P40" t="n">
         <v>108.2060987411565</v>
@@ -26328,7 +26328,7 @@
         <v>141595.0042140661</v>
       </c>
       <c r="G2" t="n">
-        <v>141595.004214066</v>
+        <v>141595.0042140661</v>
       </c>
       <c r="H2" t="n">
         <v>141595.0042140661</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-241121.1946988776</v>
+        <v>-261637.7312603657</v>
       </c>
       <c r="C6" t="n">
-        <v>-18516.85739214192</v>
+        <v>-37666.83050459813</v>
       </c>
       <c r="D6" t="n">
-        <v>36995.70581647255</v>
+        <v>18466.42298248791</v>
       </c>
       <c r="E6" t="n">
-        <v>44677.90457826917</v>
+        <v>27566.77367382401</v>
       </c>
       <c r="F6" t="n">
-        <v>130040.0269858705</v>
+        <v>112928.8960814253</v>
       </c>
       <c r="G6" t="n">
-        <v>130040.0269858704</v>
+        <v>112928.8960814253</v>
       </c>
       <c r="H6" t="n">
-        <v>130040.0269858705</v>
+        <v>112928.8960814253</v>
       </c>
       <c r="I6" t="n">
-        <v>130040.0269858705</v>
+        <v>112928.8960814253</v>
       </c>
       <c r="J6" t="n">
-        <v>130040.0269858705</v>
+        <v>112928.8960814253</v>
       </c>
       <c r="K6" t="n">
-        <v>130040.0269858705</v>
+        <v>112928.8960814253</v>
       </c>
       <c r="L6" t="n">
-        <v>130040.0269858705</v>
+        <v>112928.8960814253</v>
       </c>
       <c r="M6" t="n">
-        <v>130040.0269858705</v>
+        <v>112928.8960814253</v>
       </c>
       <c r="N6" t="n">
-        <v>130040.0269858705</v>
+        <v>112928.8960814253</v>
       </c>
       <c r="O6" t="n">
-        <v>130040.0269858705</v>
+        <v>112928.8960814252</v>
       </c>
       <c r="P6" t="n">
-        <v>130040.0269858705</v>
+        <v>112928.8960814253</v>
       </c>
     </row>
   </sheetData>
@@ -26758,7 +26758,7 @@
         <v>530.0448269814503</v>
       </c>
       <c r="I3" t="n">
-        <v>530.0448269814503</v>
+        <v>530.0448269814502</v>
       </c>
       <c r="J3" t="n">
         <v>530.0448269814503</v>
@@ -26773,7 +26773,7 @@
         <v>530.0448269814503</v>
       </c>
       <c r="N3" t="n">
-        <v>530.0448269814502</v>
+        <v>530.0448269814503</v>
       </c>
       <c r="O3" t="n">
         <v>530.0448269814503</v>
@@ -32706,7 +32706,7 @@
         <v>21.8223983289398</v>
       </c>
       <c r="I23" t="n">
-        <v>82.14895755659244</v>
+        <v>82.14895755659242</v>
       </c>
       <c r="J23" t="n">
         <v>180.8518276744397</v>
@@ -32715,16 +32715,16 @@
         <v>271.0500086839866</v>
       </c>
       <c r="L23" t="n">
-        <v>336.2615036537698</v>
+        <v>336.2615036537697</v>
       </c>
       <c r="M23" t="n">
-        <v>374.1557134701773</v>
+        <v>374.1557134701772</v>
       </c>
       <c r="N23" t="n">
         <v>372.7962283444602</v>
       </c>
       <c r="O23" t="n">
-        <v>359.0214687118426</v>
+        <v>359.0214687118425</v>
       </c>
       <c r="P23" t="n">
         <v>306.4165172903167</v>
@@ -32736,7 +32736,7 @@
         <v>133.8509682929589</v>
       </c>
       <c r="S23" t="n">
-        <v>48.55636781845147</v>
+        <v>48.55636781845146</v>
       </c>
       <c r="T23" t="n">
         <v>9.327723538135873</v>
@@ -32782,10 +32782,10 @@
         <v>1.140096420299723</v>
       </c>
       <c r="H24" t="n">
-        <v>11.01093121710523</v>
+        <v>11.01093121710522</v>
       </c>
       <c r="I24" t="n">
-        <v>39.25331973400364</v>
+        <v>39.25331973400363</v>
       </c>
       <c r="J24" t="n">
         <v>107.7141096038436</v>
@@ -32812,16 +32812,16 @@
         <v>145.5323079666805</v>
       </c>
       <c r="R24" t="n">
-        <v>70.78598651650391</v>
+        <v>70.7859865165039</v>
       </c>
       <c r="S24" t="n">
         <v>21.17679096477774</v>
       </c>
       <c r="T24" t="n">
-        <v>4.595388641471252</v>
+        <v>4.595388641471251</v>
       </c>
       <c r="U24" t="n">
-        <v>0.07500634344077131</v>
+        <v>0.0750063434407713</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32864,10 +32864,10 @@
         <v>8.498095750620635</v>
       </c>
       <c r="I25" t="n">
-        <v>28.7440702894203</v>
+        <v>28.74407028942029</v>
       </c>
       <c r="J25" t="n">
-        <v>67.57637081040555</v>
+        <v>67.57637081040554</v>
       </c>
       <c r="K25" t="n">
         <v>111.0487358823432</v>
@@ -32876,7 +32876,7 @@
         <v>142.104149187781</v>
       </c>
       <c r="M25" t="n">
-        <v>149.8289008465762</v>
+        <v>149.8289008465761</v>
       </c>
       <c r="N25" t="n">
         <v>146.2663044685042</v>
@@ -32897,10 +32897,10 @@
         <v>16.65731038235147</v>
       </c>
       <c r="T25" t="n">
-        <v>4.08395194559478</v>
+        <v>4.083951945594779</v>
       </c>
       <c r="U25" t="n">
-        <v>0.05213555675227386</v>
+        <v>0.05213555675227385</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33754,7 +33754,7 @@
         <v>231.7188972222222</v>
       </c>
       <c r="P36" t="n">
-        <v>217.7084120482866</v>
+        <v>217.7084120482867</v>
       </c>
       <c r="Q36" t="n">
         <v>145.5323079666805</v>
@@ -33891,7 +33891,7 @@
         <v>21.8223983289398</v>
       </c>
       <c r="I38" t="n">
-        <v>82.14895755659242</v>
+        <v>82.14895755659244</v>
       </c>
       <c r="J38" t="n">
         <v>180.8518276744397</v>
@@ -33900,16 +33900,16 @@
         <v>271.0500086839866</v>
       </c>
       <c r="L38" t="n">
-        <v>336.2615036537697</v>
+        <v>336.2615036537698</v>
       </c>
       <c r="M38" t="n">
-        <v>374.1557134701772</v>
+        <v>374.1557134701773</v>
       </c>
       <c r="N38" t="n">
         <v>372.7962283444602</v>
       </c>
       <c r="O38" t="n">
-        <v>359.0214687118425</v>
+        <v>359.0214687118426</v>
       </c>
       <c r="P38" t="n">
         <v>306.4165172903167</v>
@@ -33921,7 +33921,7 @@
         <v>133.8509682929589</v>
       </c>
       <c r="S38" t="n">
-        <v>48.55636781845146</v>
+        <v>48.55636781845147</v>
       </c>
       <c r="T38" t="n">
         <v>9.327723538135873</v>
@@ -33967,10 +33967,10 @@
         <v>1.140096420299723</v>
       </c>
       <c r="H39" t="n">
-        <v>11.01093121710522</v>
+        <v>11.01093121710523</v>
       </c>
       <c r="I39" t="n">
-        <v>39.25331973400363</v>
+        <v>39.25331973400364</v>
       </c>
       <c r="J39" t="n">
         <v>107.7141096038436</v>
@@ -33991,22 +33991,22 @@
         <v>231.7188972222222</v>
       </c>
       <c r="P39" t="n">
-        <v>217.7084120482866</v>
+        <v>217.7084120482867</v>
       </c>
       <c r="Q39" t="n">
         <v>145.5323079666805</v>
       </c>
       <c r="R39" t="n">
-        <v>70.7859865165039</v>
+        <v>70.78598651650391</v>
       </c>
       <c r="S39" t="n">
         <v>21.17679096477774</v>
       </c>
       <c r="T39" t="n">
-        <v>4.595388641471251</v>
+        <v>4.595388641471252</v>
       </c>
       <c r="U39" t="n">
-        <v>0.0750063434407713</v>
+        <v>0.07500634344077131</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34049,10 +34049,10 @@
         <v>8.498095750620635</v>
       </c>
       <c r="I40" t="n">
-        <v>28.74407028942029</v>
+        <v>28.7440702894203</v>
       </c>
       <c r="J40" t="n">
-        <v>67.57637081040554</v>
+        <v>67.57637081040555</v>
       </c>
       <c r="K40" t="n">
         <v>111.0487358823432</v>
@@ -34061,7 +34061,7 @@
         <v>142.104149187781</v>
       </c>
       <c r="M40" t="n">
-        <v>149.8289008465761</v>
+        <v>149.8289008465762</v>
       </c>
       <c r="N40" t="n">
         <v>146.2663044685042</v>
@@ -34082,10 +34082,10 @@
         <v>16.65731038235147</v>
       </c>
       <c r="T40" t="n">
-        <v>4.083951945594779</v>
+        <v>4.08395194559478</v>
       </c>
       <c r="U40" t="n">
-        <v>0.05213555675227385</v>
+        <v>0.05213555675227386</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34465,7 +34465,7 @@
         <v>231.7188972222222</v>
       </c>
       <c r="P45" t="n">
-        <v>217.7084120482866</v>
+        <v>217.7084120482867</v>
       </c>
       <c r="Q45" t="n">
         <v>145.5323079666805</v>
